--- a/BHF_Dashboards/BHF_DSC_TRE_External_Dashboard/Data/DD_Wales.xlsx
+++ b/BHF_Dashboards/BHF_DSC_TRE_External_Dashboard/Data/DD_Wales.xlsx
@@ -9,12 +9,18 @@
     <sheet name="CCDS" r:id="rId3" sheetId="1"/>
     <sheet name="CDDS" r:id="rId4" sheetId="2"/>
     <sheet name="RTTD" r:id="rId5" sheetId="3"/>
+    <sheet name="ABDE" r:id="rId6" sheetId="4"/>
+    <sheet name="DISPENSING_WDDS" r:id="rId7" sheetId="5"/>
+    <sheet name="DF_SHIELDED_PATIENTS" r:id="rId8" sheetId="6"/>
+    <sheet name="DEATHS" r:id="rId9" sheetId="7"/>
+    <sheet name="ICNARC_LINKAGE" r:id="rId10" sheetId="8"/>
+    <sheet name="CARE_HOMES_20200708" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1185">
   <si>
     <t>Variable</t>
   </si>
@@ -1280,6 +1286,2295 @@
   </si>
   <si>
     <t>RTTD</t>
+  </si>
+  <si>
+    <t>MULTIPLEBIRTH_TYPE_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_2_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_IND</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_15_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_10_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_PREV_CENSUS_LSOA_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_COUNTY_DISTRICT_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_OCC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_URBANRURAL_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_COUNTYDISTRICT_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_1_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_7_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_SOCIOECONOMIC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_5_CD</t>
+  </si>
+  <si>
+    <t>COUNTBIRTH</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_15_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_CURR_CENSUS_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_WARD_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_PREV_CENSUS_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_14_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_SHA_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_PREV_CENSUS_LSOA_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_REG_DT_VALID</t>
+  </si>
+  <si>
+    <t>BIRTH_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>WOB</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_2_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_6_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_MARRIAGE_IND_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_4_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_12_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_9_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_SHA_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_CCG_CD</t>
+  </si>
+  <si>
+    <t>ANNUALRECORD_IND</t>
+  </si>
+  <si>
+    <t>COMMUNAL_ESTABLISHMENT_CD_E</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_11_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_CURR_CENSUS_HEALTH_ORG_PREV_CD</t>
+  </si>
+  <si>
+    <t>MULTIPLEBIRTH_IND_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_8_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_PREV_CENSUS_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_ESTABLISHMENT_TYPE_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_5_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_POSTCODE_IMPUTATION_IND_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_PREV_CENSUS_HEALTH_ORG_PREV_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_11_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_12_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_LSOA_CD</t>
+  </si>
+  <si>
+    <t>FATHER_BIRTHCOUNTRY_CD</t>
+  </si>
+  <si>
+    <t>MATERNITYTABULATION_IND_CD</t>
+  </si>
+  <si>
+    <t>NENONATE_SEX_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_URBANRURAL_CD</t>
+  </si>
+  <si>
+    <t>FATHER_SOCIOECONOMIC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_CURR_CENSUS_LA_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_BIRTHCOUNTRY_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_6_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_CURR_CENSUS_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_REG_DT</t>
+  </si>
+  <si>
+    <t>MOTHER_COUNTYANDCOUNTYDISTRICT_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_WEIGHT</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_10_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_PREV_CENSUS_LA_PREV_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_PREV_CENSUS_LA_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_9_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_CCG_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_PREV_CENSUS_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_PREV_CENSUS_LA_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_CURR_CENSUS_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_CURR_CENSUS_LA_PREV_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_CURR_CENSUS_HEALTH_ORG_PREV_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_GOVERNMENTOFFICEREGION_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_3_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_CURR_CENSUS_LA_PREV_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_8_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_PREV_CENSUS_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_14_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_3_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_COUNTY_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_PREV_CENSUS_LA_PREV_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_13_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_CURR_CENSUS_LA_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_COUNTY_CD</t>
+  </si>
+  <si>
+    <t>BIRTHSTATS_PREV_CENSUS_HEALTH_ORG_PREV_CD</t>
+  </si>
+  <si>
+    <t>MOTHER_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_1_CD</t>
+  </si>
+  <si>
+    <t>FATHER_OCC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>BIRTH_COUNTYANDCOUNTY_DISTRICT_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_4_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_DIAG_13_CD</t>
+  </si>
+  <si>
+    <t>MOTHERSTATS_CURR_CENSUS_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>STILLBIRTH_CAUSE_7_CD</t>
+  </si>
+  <si>
+    <t>Code used to identify type of multiple birth, e.g. Code '5' refers to '1 live female, 1 still male'. This field is blank on singleton births.</t>
+  </si>
+  <si>
+    <t>This field can contain original stillbirth cause of death code according to the 9th or 10th Revision of the International Classification of Disease (ICD-9 or ICD-10) depending upon the year. These fields are only present for stillbirths. ICD-9 is used for 1993-2000 and ICD10 is used for 2001 onwards. These multiple fields contain each cause mentioned on the stillbirth certificate translated into ICD codes. Up to 15 causes can be stored on the dataset, in separate columns. For 1993 to 2000 only 8 original cause of death codes are stored.</t>
+  </si>
+  <si>
+    <t>Stillbirth indicator. This indicator is set to 1 for stillbirths. This indicator is blank on live births. NOTE - In section 41 of the Births and Deaths Registration Act 1953, a stillbirth is defined as “a child which has issued forth from its mother after the 28th week of pregnancy and which did not at any time after being completely expelled from its mother breathe or show other signs of life”. This definition was used up to 30 September 1992. On 1 October 1992 the Still-Birth (Definition) Act 1992 came into force, altering the above definition of a stillbirth to 24 or more weeks completed gestation. Figures for stillbirths from 1993 are thus not fully comparable with those for previous years. The effect of this change on figures for 1992 is analysed in the annual volume for that year (OPCS,1994).</t>
+  </si>
+  <si>
+    <t>Lower Super Output Area [LSOA] code of the residence of the mother, based upon the previous census. This has been derived from the postcode taken from the previous census.</t>
+  </si>
+  <si>
+    <t>District code for the place of birth. These geographies will differ across the UK, based on time. In Wales, this is/was a subdivision of Counties at the time.. In Wales, a District is/was a subdivision of Counties at the time.</t>
+  </si>
+  <si>
+    <t>Occupation code of mother. For 2001 onwards, Standard Occupational Classification [SOC] codes apply. For 1986-2000 use OCC90M codes. For 1982-1985 use OCC codes. 1986-1990 values are coded to Classification of occupations 1980. For further information on all codes, see ONS website. Only 10% of live births have occupation of mother and father coded, while 100% of stillbirths have occupation coded for both the mother and father where present. ALL codes are coded automatically where possible from details held in the occupation text field and the industry text field recorded at birth registration. Records which cannot be automatically coded are manually coded instead.</t>
+  </si>
+  <si>
+    <t>Anonymised Linking Field (ALF), Encrypted. This field is derived from by double encryption after splitting demographic information and clinical information; the first encryption occurs in NHS Wales Informatics Service (NWIS), and the second in SAIL. If the NHS number is not supplied in the data extract, then matching methods are applied; please refer to ALF_MTCH_PCT.</t>
+  </si>
+  <si>
+    <t>The urban/rural classification code, included to the extent that this could be entered using information via ONS statistical records, derived from the postcode of place of birth. NOTE - there will have been cases where the postcode that was recorded for the mother did not exist by the time urban/rural codes were to be added retrospectively, and it was not known into which urban/rural category that postcode would have falled. Urban/rural classification codes are available for all but an odd case for 1999 onwards. The reliability of the classification will decrease the further back one goes, because the nature of any given area changes with time and development.</t>
+  </si>
+  <si>
+    <t>District code of usual residence of mother. These geographies will differ across the UK, based on time. In Wales, this is/was a subdivision of Counties at the time.. In Wales, a District is/was a subdivision of Counties at the time.</t>
+  </si>
+  <si>
+    <t>Socio-economic classification of mother. Socio-economic classification is only coded on 10% of live births. Only 10% of live births have socio-economic status coded, while 100% of stillbirths have socio-economic status coded. Live births where employment status has not been coded will have SEC90F and SEC90M blank. Records where no father/second parent is present on the birth registration will also have SEC90M blank.</t>
+  </si>
+  <si>
+    <t>Count of birth. Should always = 1</t>
+  </si>
+  <si>
+    <t>Anonymised Linked Field Status Code. This is assigned when deriving the Encrypted Anonymised Linking Field.</t>
+  </si>
+  <si>
+    <t>Country code in which the mother is resident, based on the current census. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>The electoral ward [also known as neighbourhood] code of the residence of the mother. The ward code has been derived from the postcode of usual residence of the mother.</t>
+  </si>
+  <si>
+    <t>Country code in which the mother is resident, based on the previous census. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>Lower Super Output Area [LSOA] code of the place of birth, based upon the previous census. This has been derived from the postcode taken from the previous census.</t>
+  </si>
+  <si>
+    <t>Date when the data made available i.e. date of loading into database.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) for the place of birth, identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>The date of the Monday that occurs prior, or on, the actual date of birth. Access to this data item is limited, however, as it can be used to calculate age at specific events. Possible errors in extract may include patients with events and event dates before WOB.</t>
+  </si>
+  <si>
+    <t>Marital/civil partnership status of parents and Registration type. This field is derived based on whether marriage/civil partnership details are recorded at birth registration and from 1986 onwards whether the addresses of the mother and father/second parent are the same. To determine whether a birth registration outside of marriage prior to 1986 is a joint registration or a sole registration you need to look to see whether father’s details are recorded on the birth registration. Prior to 1986 it is not possible to determine whether for joint registrations the parents were living at the same address or at different addresses. Marital/civil partnership status of parents and registration type. From 1 September 2009, births could be registered under the Human Fertilisation and Embryology Act 2008 by a same sex female couple (records where the variable PIND [second female parent indicator] = 1), these births could be registered within or outside of a civil partnership/marriage. Marriages of same sex couples could take place in England and Wales from 29 March 2014. NOTE - there are separate indicators to denote multiple or previous marriage/civil partnerships.</t>
+  </si>
+  <si>
+    <t>Birth record id</t>
+  </si>
+  <si>
+    <t>If the birth occurred in a communal establishment then the code is allocated at the time the birth is registered. The code is not presented to the screen, it is generated as a result of the establishment address being input. If the birth occurred at the mother's usual address then an 'H' (at home) will be present. If the event did not take place at home nor in a communal establishment then an 'E' (Elsewhere) will be present.</t>
+  </si>
+  <si>
+    <t>When a birth registration is one of a multiple birth maternity the multiple birth indicator is set to 1. This indicator is assigned by ONS. Values: 1 = multiple birth; this field is blank on singleton births. This data is good from 1993 onwards. Prior to 1993 MULTIPLEBIRTH_TYPE_CD needs to be used to identify multiple births.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) where the mother is a resident, based upon the previous census. Identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>Establishment type where birth occurred [e.g. NHS facility or other/elsewhere]. Derived from CESTRSS [Communal Establishment Code]; data available from 1993 onwards.</t>
+  </si>
+  <si>
+    <t>No postcode is present when mother’s area of usual residence is outside of the UK. Where the mother’s usual residence is within England and Wales and the postcode is not present or is considered invalid, a postcode will be imputed (PCDIND = 1). The indicator is set to 1 automatically if a valid postcode is not present when data are received. This field is blank if the postcode has otherwise not been imputed. Data present throughout except 1998.</t>
+  </si>
+  <si>
+    <t>Lower Super Output Area [LSOA] code of the residence of the mother. The LSOA code has been derived from the postcode of usual residence of the mother.</t>
+  </si>
+  <si>
+    <t>Country code of place of birth of father/second parent. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>Sex of child; Code '1' = Male, Code '2' = Female. Each year there may be a record which is received with indeterminate sex. This is changed to Male.</t>
+  </si>
+  <si>
+    <t>The urban/rural classification code, included to the extent that this could be entered using information via ONS statistical records, derived from the postcode of usual residence of mother. NOTE - there will have been cases where the postcode that was recorded for the mother did not exist by the time urban/rural codes were to be added retrospectively, and it was not known into which urban/rural category that postcode would have falled. Urban/rural classification codes are available for all but an odd case for 1999 onwards. The reliability of the classification will decrease the further back one goes, because the nature of any given area changes with time and development.</t>
+  </si>
+  <si>
+    <t>Socio-economic classification of father/second parent.Socio-economic classification is only coded on 10% of live births. Only 10% of live births have socio-economic status coded, while 100% of stillbirths have socio-economic status coded. Live births where employment status has not been coded will have SEC90F and SEC90M blank. Records where no father/second parent is present on the birth registration will also have SEC90M blank. NOTE - codes 2001 onwards will DIFFER from codes from 1993-2000.</t>
+  </si>
+  <si>
+    <t>Local Authority code in which the mother is resident, based on the current census.</t>
+  </si>
+  <si>
+    <t>Country code ofplace of birth of mother. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>Country code of the place of birth, based on the current census. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>Date of registration of birth. Value: For 1993 onwards, YYYYMMDD for example 18 December 2013 would be 20131218. For 1982-1992, REGMTH (1-12) and REGYR (YYYY) need to be used in combination. Thus, prior to 1993 only the month and year of registration are available.</t>
+  </si>
+  <si>
+    <t>County and district code of usual residence of mother. These geographies will differ across the UK, based on time. In Wales, this is/was a subdivision of Counties at the time.</t>
+  </si>
+  <si>
+    <t>Birthweight is measured in grams. For live birth registrations received on RON, birthweight is passed electronically to us from the notification by the midwife or doctor in attendance at the birth. These details are then supplied to the registrar. For stillbirths, details of the weight of the foetus are supplied on a certificate by a doctor or midwife. The certificate is Birth History True Birth Order Registration Birth Order Marital Birth Order First birth while cohabiting with man A 1 Not recorded Not applicable Second birth while married to man B 2 1 1 Third birth while cohabiting with man C 3 Not recorded Not applicable Fourth birth after marriage to man C 4 3 2 Office for National Statistics 20 Birth Statistics: Metadata then taken by an informant to the registrar. If the birthweight is missing, but the registration is linked to the birth notification then the birthweight from the notification is taken. In cases where no birthweight is recorded, the birth is included in the total ‘all weights’ but not distributed among the individual categories. Table H provides figures for records where no birthweight was recorded.</t>
+  </si>
+  <si>
+    <t>Local Authority code in which the mother is resident, based on the previous census.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) of the place of birth, based upon the previous census. Identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>Local Authority code of the place of birth, based on the previous census.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) of the place of birth, based upon the current census. Identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>Government office region of usual residence of mother. This should usually be "W" for Wales.</t>
+  </si>
+  <si>
+    <t>Country code of the place of birth, based on the previous census. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>County code for the place of birth. These geographies will differ across the UK, based on time. In Wales, counties can be ceremonial, historic, or preserved; most changed into Local Authorities.</t>
+  </si>
+  <si>
+    <t>Local Authority code of the place of birth, based on the current census.</t>
+  </si>
+  <si>
+    <t>County code of usual residence of mother. These geographies will differ across the UK, based on time. In Wales, counties can be ceremonial, historic, or preserved; most changed into Local Authorities.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) of the residence of the mother. Identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>Occupation code of father/second parent. For 2001 onwards, Standard Occupational Classification [SOC] codes apply. For 1986-2000 use OCC90M codes. For 1982-1985 use OCC codes. 1986-1990 values are coded to Classification of occupations 1980. For further information on all codes, see ONS website. Only 10% of live births have occupation of mother and father coded, while 100% of stillbirths have occupation coded for both the mother and father where present. ALL codes are coded automatically where possible from details held in the occupation text field and the industry text field recorded at birth registration. Records which cannot be automatically coded are manually coded instead.</t>
+  </si>
+  <si>
+    <t>County and district code for the place of birth. These geographies will differ across the UK, based on time. In Wales, this is/was a subdivision of Counties at the time.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) where the mother is a resident, based upon the current census. Identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>ABDE</t>
+  </si>
+  <si>
+    <t>DATE_PRESCRIBED</t>
+  </si>
+  <si>
+    <t>DISPENSER_ID</t>
+  </si>
+  <si>
+    <t>DMDCODE_PRESCRIBED</t>
+  </si>
+  <si>
+    <t>FORM_NO</t>
+  </si>
+  <si>
+    <t>GPPRACTICE_ID_E</t>
+  </si>
+  <si>
+    <t>MONTH_DISPENSED</t>
+  </si>
+  <si>
+    <t>PRODUCT_PRESCRIBED</t>
+  </si>
+  <si>
+    <t>QTY_PRESCRIBED</t>
+  </si>
+  <si>
+    <t>QTY_PRESCRIBED_VAL</t>
+  </si>
+  <si>
+    <t>QTY_UOM_CODE</t>
+  </si>
+  <si>
+    <t>SYSTEM_ID_E</t>
+  </si>
+  <si>
+    <t>Date the prescription was dispensed.</t>
+  </si>
+  <si>
+    <t>The ID code for the community pharmacy which issues and dispenses the number/type of presciption items. This should be broken down by the GP practice in which they are prescribed.</t>
+  </si>
+  <si>
+    <t>Lists the NHS Dictionary of Medicines and Devices Code for the prescribed product.</t>
+  </si>
+  <si>
+    <t>The presciption form number.</t>
+  </si>
+  <si>
+    <t>Encrypted GP Practice ID.</t>
+  </si>
+  <si>
+    <t>Year and month the prescription was dispensed.</t>
+  </si>
+  <si>
+    <t>Full name description and type of the product prescribed, e.g. Fluoxetine 20mg capsules.</t>
+  </si>
+  <si>
+    <t>Specifies the number or quantity of the prescribed product, e.g. 100ml; 14 tablet, etc. See PRODUCT_DESCRIBED for full description and name.</t>
+  </si>
+  <si>
+    <t>The number-only value for the amount/number/quantity of the prescibed product. See PRODUCT_DESCRIBED for full description and name.</t>
+  </si>
+  <si>
+    <t>The code for the UOM or unit of measurement.</t>
+  </si>
+  <si>
+    <t>Encrypted WCISU patient reference number for data linkage.</t>
+  </si>
+  <si>
+    <t>DISPENSING_WDDS</t>
+  </si>
+  <si>
+    <t>PHASE</t>
+  </si>
+  <si>
+    <t>TO_NWSSP</t>
+  </si>
+  <si>
+    <t>WAVE</t>
+  </si>
+  <si>
+    <t>VULNERABLE_CAT</t>
+  </si>
+  <si>
+    <t>Code indicating the sex (gender) of person, employee or patient.</t>
+  </si>
+  <si>
+    <t>Date of birth of the patient.</t>
+  </si>
+  <si>
+    <t>The phase in which the individual was first considered a shielded patient.</t>
+  </si>
+  <si>
+    <t>Date in which the individual was first considered a shielded patient.</t>
+  </si>
+  <si>
+    <t>For a given phase, the wave in which the indivual was first considered a shielded patient.</t>
+  </si>
+  <si>
+    <t>Category code and description indicating the reason the individual is considered a shielded patient.</t>
+  </si>
+  <si>
+    <t>DF_SHIELDED_PATIENTS</t>
+  </si>
+  <si>
+    <t>DEC_STATS_PREV_CENSUS_HEALTH_ORG_PREV_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_SEC_CAUSE_CD</t>
+  </si>
+  <si>
+    <t>DEC_LSOA_CD</t>
+  </si>
+  <si>
+    <t>DEC_STATS_PREV_CENSUS_LA_CD</t>
+  </si>
+  <si>
+    <t>DEC_OR_MOTHER_SOCIOECONOMIC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>DEC_COUNTYDISTRICT_CD</t>
+  </si>
+  <si>
+    <t>COUNT_DEATH</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_7_CD</t>
+  </si>
+  <si>
+    <t>DEC_CCG_CD</t>
+  </si>
+  <si>
+    <t>DEATH_POSTCODE_IMPUTATION_IND_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_6_CD</t>
+  </si>
+  <si>
+    <t>DEATH_COMMUNAL_ESTABLISHMENT_CD_E</t>
+  </si>
+  <si>
+    <t>DEC_SEX_CD</t>
+  </si>
+  <si>
+    <t>DEC_URBANRURAL_CD</t>
+  </si>
+  <si>
+    <t>DEC_OR_MOTHER_RETIRED_IND_CD</t>
+  </si>
+  <si>
+    <t>DEATH_CCG_CD</t>
+  </si>
+  <si>
+    <t>DEC_STATS_PREV_CENSUS_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>DEC_SHA_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_1_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_3_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_6_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_2_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_UNDERLYING_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_4_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_3_CD</t>
+  </si>
+  <si>
+    <t>DEATHSTATS_PREV_CENSUS_LSOA_CD</t>
+  </si>
+  <si>
+    <t>DEC_OR_MOTHER_OCC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>DEATH_URBANRURAL_CD</t>
+  </si>
+  <si>
+    <t>DEC_GOVERNMENTOFFICE_REGION_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_7_CD</t>
+  </si>
+  <si>
+    <t>DEATH_ESTABLISHMENT_TYPE_CD</t>
+  </si>
+  <si>
+    <t>DEATHSTATS_PREV_CENSUS_HEALTH_ORG_PREV_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_5_CD</t>
+  </si>
+  <si>
+    <t>DEATHSTATS_PREV_CENSUS_LA_PREV_CD</t>
+  </si>
+  <si>
+    <t>DEATHSTATS_PREV_CENSUS_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>DEATH_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_5_CD</t>
+  </si>
+  <si>
+    <t>DEC_HUSBAND_OR_FATHER_RETIRED_IND_CD</t>
+  </si>
+  <si>
+    <t>DEATH_REG_DT_VALID</t>
+  </si>
+  <si>
+    <t>DEC_STATS_PREV_CENSUS_LSOA_CD</t>
+  </si>
+  <si>
+    <t>DEC_STATS_PREV_CENSUS_LA_PREV_CD</t>
+  </si>
+  <si>
+    <t>NEONATAL_IND_FLG</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_8_CD</t>
+  </si>
+  <si>
+    <t>DEC_OCC_TYPE_CD</t>
+  </si>
+  <si>
+    <t>DEATHSTATS_PREV_CENSUS_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>DEATH_COUNTYANDDISTRICT_CD</t>
+  </si>
+  <si>
+    <t>DEATH_REG_DT</t>
+  </si>
+  <si>
+    <t>DEC_HUSBAND_OR_FATHER_SOCIOECONOMIC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>DEC_BIRTHCOUNTRY_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_8_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_4_CD</t>
+  </si>
+  <si>
+    <t>DEATH_NHS_ESTABLISHMENT_IND_CD</t>
+  </si>
+  <si>
+    <t>DEATHSTATS_PREV_CENSUS_LA_CD</t>
+  </si>
+  <si>
+    <t>DEC_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>DEC_AGE_UNIT_CD</t>
+  </si>
+  <si>
+    <t>DEC_WARD_CD</t>
+  </si>
+  <si>
+    <t>DEATH_ANNUALRECORD_IND_CD</t>
+  </si>
+  <si>
+    <t>DEATH_DT_VALID</t>
+  </si>
+  <si>
+    <t>DEC_HUSBAND_OR_FATHER_OCC_CLASS_CD</t>
+  </si>
+  <si>
+    <t>DEC_COUNTYANDDISTRICT_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_DIAG_2_CD</t>
+  </si>
+  <si>
+    <t>DEC_AGE</t>
+  </si>
+  <si>
+    <t>DEC_COUNTY_CD</t>
+  </si>
+  <si>
+    <t>DEATHCAUSE_ROWPOS_1_CD</t>
+  </si>
+  <si>
+    <t>DEC_STATS_PREV_CENSUS_COUNTRY_CD</t>
+  </si>
+  <si>
+    <t>This field identifies the nature of injury when the underlying cause of death (defined by ICD-10 OR ICD-9) is an external cause. It is possible to have more than one nature of injury code for a single death. This covers all records where the underlying cause of death is an external cause from 2001 onwards [using ICD-10 coding ONLY], and from 1993-2000 [using ICD-9 coding ONLY]. Sometimes information on injuries is derived from coroner forms that are supplied to ONS, in particular coroner certificates of cause of death after inquest. NOTE - Because the revised form no longer includes specific questions about type of injury and parts of body injured, some coroners now often provide less detail than before. The result is that some deaths are assigned to residual codes for nature of injury. For example, in ICD-10 the statement “head injury” is coded to “unspecified injury of head” (S09.9), whereas with more detail it might be assigned to “fracture of skull and facial bones” (S02.n). The move from ICD-9 to ICD-10 had an impact on the allocation of secondary causes. ONS published an assessment of this impact (Griffiths and Rooney 2003). In ICD-10, when more than one body region is involved, coding is made to the relevant category of injuries involving multiple body regions (T00–T07). Therefore, in the above example of an occupant injured in a transport accident, under ICD-10 the secondary cause would be classified as “other specified injuries involving multiple body regions” (T06.8), whereas under ICD-9 the secondary cause would be more specifically classified as a fracture of the skull (ICD-9 800). Missing Values and imputation: Field is blank for deaths at age under 28 days.</t>
+  </si>
+  <si>
+    <t>Lower Super Output Area [LSOA] code of the residence of the deceased. The LSOA code has been derived from the postcode of usual residence of deceased.</t>
+  </si>
+  <si>
+    <t>Local Authority code in which the deceased is/was resident, based on the previous census.</t>
+  </si>
+  <si>
+    <t>Socio-economic classification code; National Statistics Socio-economic Classification operational category for mother of deceased juvenile. Covers all records after 2001; codes are derived during the online coding and validation process from a pre-existing field that contains the values 1-40 of the operational categories of the National Statistics Socioeconomic Classification based on Standard Occupational Classification.</t>
+  </si>
+  <si>
+    <t>District code of usual residence of deceased. These geographies will differ across the UK, based on time. In Wales, this is/was a subdivision of Counties at the time.. In Wales, a District is/was a subdivision of Counties at the time.</t>
+  </si>
+  <si>
+    <t>Count of death. Should always = 1</t>
+  </si>
+  <si>
+    <t>Coded cause of death, this is coded to ICD9 for deaths from 1993-2000 and ICD10 for deaths from 2001- Onwards</t>
+  </si>
+  <si>
+    <t>No postcode is present when deceased's area of usual residence is outside of the UK. Where the deceased's usual residence is within England and Wales and the postcode is not present or is considered invalid, a postcode will be imputed (PCDIND = 1). The indicator is set to 1 automatically if a valid postcode is not present when data are received. This field is blank if the postcode has otherwise not been imputed. Data present throughout except 1998.</t>
+  </si>
+  <si>
+    <t>ICD-9 or ICD-10 code to understand underlying [secondary] or external cause of death.</t>
+  </si>
+  <si>
+    <t>Communal establishment code of residence; coding ranges 00000-99999 [see communal establishment list for full description]. Covers all records where the deceased died in a communal establishment with a stay of over 6 months [e.g. nursing home]. Specific derivation: where a deceased person dies in a communal establishment and their length of stay is over 6 months which will populate the field CESTSTAY with a value of 2. The CESTRSSR code is applied in relation to that specific communal establishment where they lived. Missing Values and imputation, or where blank, will have "".</t>
+  </si>
+  <si>
+    <t>Coded sex of deceased. This is derived from the death certificate; data is loaded in with M, F, I, X, Y, Z which are then recoded so, M and Y = 1, F and Z=2 and I and X=3. In published tables, 1 and 3 are classed as males and 2 is classed as female.</t>
+  </si>
+  <si>
+    <t>The urban/rural classification code, included to the extent that this could be entered using information via ONS statistical records, derived from the postcode of usual residence of deceased. NOTE - there will have been cases where the postcode that was recorded when the death was registered did not exist by the time urban/rural codes were to be added retrospectively, and it was not known into which urban/rural category that postcode would have falled. Urban/rural classification codes are available for all but an odd case for 1999 onwards. The reliability of the classification will decrease the further back one goes, because the nature of any given area changes with time and development.</t>
+  </si>
+  <si>
+    <t>Retired indicator for deceased or mother [in case of child]. Value=1 for "retired", black if otherwise.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) where the deceased is/was a resident, based upon the previous census. Identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>Date of death day. Value Labels/Coding: 00-31=day. This is derived from the death certificate. If the value is unknown or omitted then it is populated with 0.</t>
+  </si>
+  <si>
+    <t>Coded underlying cause of death. Automated cause coding is used to allocate an International Classification of Diseases (ICD) code for each medical condition on the certificate and to identify the underlying cause, with approximately 90% of records being automatically coded using IRIS (2014 to present).</t>
+  </si>
+  <si>
+    <t>Lower Super Output Area [LSOA] code of the place of death of the deceased, based upon the previous census.</t>
+  </si>
+  <si>
+    <t>Standard Occupation Classification code for deceased or mother of deceased juvenile. From 1993 to 2000, occupation was coded using the Standard Occupational Classification SOC90. For 2001 to 2010, occupation was coded using the Standard Occupational Classification SOC2000. The National Statistics Socio-economic Classification (NS-SEC) categorised the socio-economic classification of people. For 2011 onwards, occupation was coded using the Standard Occupational Classification SOC2010.</t>
+  </si>
+  <si>
+    <t>The urban/rural classification code at place of death, included to the extent that this could be entered using information via ONS statistical records. For example, there will have been cases where the postcode that was recorded when the event was registered did not exist by the time urban/rural codes were to be added retrospectively, and it was not known into which urban/rural category that postcode would have falled. Urban/rural classification codes are available for all but an odd case for 1999 onwards. The reliability of the classification will decrease the further back one goes, because the nature of any given area changes with time and development.</t>
+  </si>
+  <si>
+    <t>Government office region of usual residence of deceased. This should usually be "W" for Wales.</t>
+  </si>
+  <si>
+    <t>Establishment type where birth occurred [e.g. NHS facility or other/elsewhere]. Value labels/coding/range 01-83,99; see communal establishment list. Covers all records where death took place in communal establishment. Derived in the Communal Establishment Coding process which uses the entity code held in CESTRSS [Communal Establishment Code] to find establishment type on the OGSS Communal Establishment file.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) for the place of the deceased , based upon the previous census. Identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>Organisation Code for the Local Health Board (LHB) where the deceased is/was a resident, identified via the NHS Postcode Directory.</t>
+  </si>
+  <si>
+    <t>Retired indicator for husband or father [in case of child]. Value=1 for "retired", black if otherwise.</t>
+  </si>
+  <si>
+    <t>Lower Super Output Area [LSOA] code of the residence of the deceased, based upon the previous census. This has been derived from the postcode taken from the previous census.</t>
+  </si>
+  <si>
+    <t>Neonatal death indicator. Neonatal is defined as being in the first 27 completed days of life 9&gt;0 and &lt;672 hours old at death. Value of 0 = non-neo; Value of 1 = Neonate.</t>
+  </si>
+  <si>
+    <t>Occupation code of the deceased. For 2001 onwards, Standard Occupational Classification [SOC] codes apply. For 1986-2000 use OCC90M codes. For 1982-1985 use OCC codes. 1986-1990 values are coded to Classification of occupations 1980. For further information on all codes, see ONS website. Only 10% of live births have occupation of mother and father coded, while 100% of stillbirths have occupation coded for both the mother and father where present. ALL codes are coded automatically where possible from details held in the occupation text field and the industry text field recorded at birth registration. Records which cannot be automatically coded are manually coded instead.</t>
+  </si>
+  <si>
+    <t>Country code in which the deceased is/was resident, based on the previous census. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>County and district code of place of death of deceased. These geographies will differ across the UK, based on time. In Wales, this is/was a subdivision of Counties at the time.</t>
+  </si>
+  <si>
+    <t>Date the death was registered. Value Labels/Coding: dates are in the format YYYYMMDD for example 24 February 2015 would be 20150224. This date is derived from the death certificate.</t>
+  </si>
+  <si>
+    <t>Socio-economic classification code; National Statistics Socio-economic Classification operational category for husband or father of deceased juvenile. Covers all records after 2001; codes are derived during the online coding and validation process from a pre-existing field that contains the values 1-40 of the operational categories of the National Statistics Socioeconomic Classification based on Standard Occupational Classification.</t>
+  </si>
+  <si>
+    <t>Country code of place of birth of the deceased. For 2007 onwards, the National Statistics Country Classification [NSCC] has been used to code country of birth. The classification is available online via NSCC. For dates 1982-2006, country of birth code lists for this period is provided in separate excel file.</t>
+  </si>
+  <si>
+    <t>NHS establishment indicator for place of death. This is a code derived during the Communal Establishment coding process from the Communal Establishment file, using the entity code of place of death in CESTRSS. Not present if CESTRSS is H or E. Values are 1: NHS establishment; 2: Non-NHS establishment.</t>
+  </si>
+  <si>
+    <t>Local Authority code for the place of death of the deceased, based on the previous census.</t>
+  </si>
+  <si>
+    <t>Calculated age unit [unit of age]. This is derived from the caclucated age. Value Labels/Coding: 1=years; 2=months; 3=weeks; 4=days. For deaths occurring under 24 hours, the registrar provides different details of the age at death in a separate column/coding system.</t>
+  </si>
+  <si>
+    <t>The electoral ward [also known as neighbourhood] code of the residence of the deceased. The ward code has been derived from the postcode of usual residence of deceased.</t>
+  </si>
+  <si>
+    <t>Date of death flag [present or absent].</t>
+  </si>
+  <si>
+    <t>Standard Occupation Classification code for husband or father/parent of deceased juvenile. From 1993 to 2000, occupation was coded using the Standard Occupational Classification SOC90. For 2001 to 2010, occupation was coded using the Standard Occupational Classification SOC2000. The National Statistics Socio-economic Classification (NS-SEC) categorised the socio-economic classification of people. For 2011 onwards, occupation was coded using the Standard Occupational Classification SOC2010.</t>
+  </si>
+  <si>
+    <t>County and district code of usual residence of deceased. These geographies will differ across the UK, based on time. In Wales, this is/was a subdivision of Counties at the time.</t>
+  </si>
+  <si>
+    <t>Calculated age of the deceased. This will range from 000 - 120, so anything outside this range is to be flagged. Age is derived by subtraction of the date of birth from the data of death [supplied by the informant in most cases, except after inquest, where the coroner supplies this information]. Where a year of birth or year of death are recorded as 9999 (missing) the value in DEC_AGE will be copied to DEC_AGE_UNIT_CD. Where dates of birth and/or death are invalid the record will fail validation and require online coding by the Miscellaneous Coding Team.</t>
+  </si>
+  <si>
+    <t>County code of usual residence of deceased. These geographies will differ across the UK, based on time. In Wales, counties can be ceremonial, historic, or preserved; most changed into Local Authorities.</t>
+  </si>
+  <si>
+    <t>Smallint</t>
+  </si>
+  <si>
+    <t>DEATHS</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>TTW</t>
+  </si>
+  <si>
+    <t>CRPREG</t>
+  </si>
+  <si>
+    <t>DOD</t>
+  </si>
+  <si>
+    <t>LSYS</t>
+  </si>
+  <si>
+    <t>RAICU2_TEXT</t>
+  </si>
+  <si>
+    <t>CLASSNS</t>
+  </si>
+  <si>
+    <t>HVRR</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>HDIS</t>
+  </si>
+  <si>
+    <t>BCSD</t>
+  </si>
+  <si>
+    <t>CHEMOX</t>
+  </si>
+  <si>
+    <t>LHR</t>
+  </si>
+  <si>
+    <t>DDH</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>LOCA</t>
+  </si>
+  <si>
+    <t>PBL</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>MOUAIB</t>
+  </si>
+  <si>
+    <t>CPR_V3</t>
+  </si>
+  <si>
+    <t>UHDIS</t>
+  </si>
+  <si>
+    <t>CCL0D</t>
+  </si>
+  <si>
+    <t>TAICU</t>
+  </si>
+  <si>
+    <t>HHR</t>
+  </si>
+  <si>
+    <t>ASSOD</t>
+  </si>
+  <si>
+    <t>TBRICU</t>
+  </si>
+  <si>
+    <t>CMLCLL</t>
+  </si>
+  <si>
+    <t>INHAL</t>
+  </si>
+  <si>
+    <t>PCILPO</t>
+  </si>
+  <si>
+    <t>DLCCA</t>
+  </si>
+  <si>
+    <t>ILPO</t>
+  </si>
+  <si>
+    <t>yulos</t>
+  </si>
+  <si>
+    <t>yhlosb</t>
+  </si>
+  <si>
+    <t>ACSD</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>AHSURV</t>
+  </si>
+  <si>
+    <t>PA_V3</t>
+  </si>
+  <si>
+    <t>DOAICU</t>
+  </si>
+  <si>
+    <t>VSCD</t>
+  </si>
+  <si>
+    <t>RAICU1</t>
+  </si>
+  <si>
+    <t>BPC</t>
+  </si>
+  <si>
+    <t>NUAIB</t>
+  </si>
+  <si>
+    <t>LPC</t>
+  </si>
+  <si>
+    <t>MWBC</t>
+  </si>
+  <si>
+    <t>ETHNIC</t>
+  </si>
+  <si>
+    <t>HSYS</t>
+  </si>
+  <si>
+    <t>TYPEIHD</t>
+  </si>
+  <si>
+    <t>PNA</t>
+  </si>
+  <si>
+    <t>CICIDS</t>
+  </si>
+  <si>
+    <t>NSB</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>DADEL</t>
+  </si>
+  <si>
+    <t>HNCTEMP</t>
+  </si>
+  <si>
+    <t>LNVRR</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>HE</t>
+  </si>
+  <si>
+    <t>AHLOSB</t>
+  </si>
+  <si>
+    <t>icubeds</t>
+  </si>
+  <si>
+    <t>SOHD</t>
+  </si>
+  <si>
+    <t>WKGEST</t>
+  </si>
+  <si>
+    <t>LPH_V3</t>
+  </si>
+  <si>
+    <t>RAICU_TEXT</t>
+  </si>
+  <si>
+    <t>DTW</t>
+  </si>
+  <si>
+    <t>HBL</t>
+  </si>
+  <si>
+    <t>MRSA</t>
+  </si>
+  <si>
+    <t>nphilpo</t>
+  </si>
+  <si>
+    <t>ANCHWBC</t>
+  </si>
+  <si>
+    <t>HRG</t>
+  </si>
+  <si>
+    <t>EYEL</t>
+  </si>
+  <si>
+    <t>pfratio</t>
+  </si>
+  <si>
+    <t>HLOCD</t>
+  </si>
+  <si>
+    <t>DAH</t>
+  </si>
+  <si>
+    <t>TGA</t>
+  </si>
+  <si>
+    <t>PDIAL</t>
+  </si>
+  <si>
+    <t>LYM</t>
+  </si>
+  <si>
+    <t>PHCO</t>
+  </si>
+  <si>
+    <t>DBRICU</t>
+  </si>
+  <si>
+    <t>uraicu_text</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>PHB</t>
+  </si>
+  <si>
+    <t>AUSURV</t>
+  </si>
+  <si>
+    <t>HNA</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>yhlosa</t>
+  </si>
+  <si>
+    <t>TWFRD</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>DESTH_V3</t>
+  </si>
+  <si>
+    <t>NSD</t>
+  </si>
+  <si>
+    <t>HOSPNAME</t>
+  </si>
+  <si>
+    <t>DUDH</t>
+  </si>
+  <si>
+    <t>CCL2D</t>
+  </si>
+  <si>
+    <t>IMscore</t>
+  </si>
+  <si>
+    <t>DSD</t>
+  </si>
+  <si>
+    <t>RADIOX</t>
+  </si>
+  <si>
+    <t>CDIFF</t>
+  </si>
+  <si>
+    <t>PLOCA</t>
+  </si>
+  <si>
+    <t>curb65</t>
+  </si>
+  <si>
+    <t>TNESSD</t>
+  </si>
+  <si>
+    <t>HHCO</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>PDIAH</t>
+  </si>
+  <si>
+    <t>HLOCA</t>
+  </si>
+  <si>
+    <t>bcreat_mdrd75</t>
+  </si>
+  <si>
+    <t>MCREAT</t>
+  </si>
+  <si>
+    <t>MNA</t>
+  </si>
+  <si>
+    <t>LSD</t>
+  </si>
+  <si>
+    <t>HCTEMP</t>
+  </si>
+  <si>
+    <t>ANCLWBC</t>
+  </si>
+  <si>
+    <t>DOAH</t>
+  </si>
+  <si>
+    <t>WKG</t>
+  </si>
+  <si>
+    <t>INTL</t>
+  </si>
+  <si>
+    <t>RESA</t>
+  </si>
+  <si>
+    <t>npcilpo</t>
+  </si>
+  <si>
+    <t>NPLSB</t>
+  </si>
+  <si>
+    <t>STERX</t>
+  </si>
+  <si>
+    <t>AMLALLMM</t>
+  </si>
+  <si>
+    <t>HTLOCA</t>
+  </si>
+  <si>
+    <t>yusurv</t>
+  </si>
+  <si>
+    <t>AP2Score</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>LSOA</t>
+  </si>
+  <si>
+    <t>LHB</t>
+  </si>
+  <si>
+    <t>LPR</t>
+  </si>
+  <si>
+    <t>LCTEMP</t>
+  </si>
+  <si>
+    <t>LOCD</t>
+  </si>
+  <si>
+    <t>OD_V3</t>
+  </si>
+  <si>
+    <t>kdigo_mdrd75</t>
+  </si>
+  <si>
+    <t>RAICU2</t>
+  </si>
+  <si>
+    <t>GSD</t>
+  </si>
+  <si>
+    <t>MHB</t>
+  </si>
+  <si>
+    <t>MPR</t>
+  </si>
+  <si>
+    <t>HHB</t>
+  </si>
+  <si>
+    <t>ADMTYPE</t>
+  </si>
+  <si>
+    <t>LNA</t>
+  </si>
+  <si>
+    <t>BSA</t>
+  </si>
+  <si>
+    <t>PMHP</t>
+  </si>
+  <si>
+    <t>RESD</t>
+  </si>
+  <si>
+    <t>VERL</t>
+  </si>
+  <si>
+    <t>yhlos</t>
+  </si>
+  <si>
+    <t>LTOT</t>
+  </si>
+  <si>
+    <t>HCMEST</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>icuname</t>
+  </si>
+  <si>
+    <t>TUIDO</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>CCD</t>
+  </si>
+  <si>
+    <t>MHCO</t>
+  </si>
+  <si>
+    <t>VRE</t>
+  </si>
+  <si>
+    <t>MBL</t>
+  </si>
+  <si>
+    <t>HWBC</t>
+  </si>
+  <si>
+    <t>LVRR</t>
+  </si>
+  <si>
+    <t>AHLOS</t>
+  </si>
+  <si>
+    <t>ANCPWBC</t>
+  </si>
+  <si>
+    <t>MUP</t>
+  </si>
+  <si>
+    <t>CALAGE</t>
+  </si>
+  <si>
+    <t>AMUAI</t>
+  </si>
+  <si>
+    <t>LEVA</t>
+  </si>
+  <si>
+    <t>DDBSD</t>
+  </si>
+  <si>
+    <t>RPR</t>
+  </si>
+  <si>
+    <t>TYPEIHA</t>
+  </si>
+  <si>
+    <t>BSDTP</t>
+  </si>
+  <si>
+    <t>BRSD</t>
+  </si>
+  <si>
+    <t>PCREAT</t>
+  </si>
+  <si>
+    <t>yhsurv</t>
+  </si>
+  <si>
+    <t>LWBC</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>SOHA</t>
+  </si>
+  <si>
+    <t>icutype</t>
+  </si>
+  <si>
+    <t>MOTL</t>
+  </si>
+  <si>
+    <t>npclph</t>
+  </si>
+  <si>
+    <t>TDBSD</t>
+  </si>
+  <si>
+    <t>DUDICU</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>UDIS</t>
+  </si>
+  <si>
+    <t>CCL1D</t>
+  </si>
+  <si>
+    <t>SCODE</t>
+  </si>
+  <si>
+    <t>TUIDI</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>URAICU</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>GESTC</t>
+  </si>
+  <si>
+    <t>DFCCD</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>ITW_V3</t>
+  </si>
+  <si>
+    <t>LNCTEMP</t>
+  </si>
+  <si>
+    <t>TOD</t>
+  </si>
+  <si>
+    <t>EPMH</t>
+  </si>
+  <si>
+    <t>OCPMH</t>
+  </si>
+  <si>
+    <t>LEVD</t>
+  </si>
+  <si>
+    <t>EPHYS</t>
+  </si>
+  <si>
+    <t>IMD2019</t>
+  </si>
+  <si>
+    <t>EDEP</t>
+  </si>
+  <si>
+    <t>TNESSA</t>
+  </si>
+  <si>
+    <t>VENT</t>
+  </si>
+  <si>
+    <t>CCL3D</t>
+  </si>
+  <si>
+    <t>CRRX</t>
+  </si>
+  <si>
+    <t>DDICU</t>
+  </si>
+  <si>
+    <t>LHCO</t>
+  </si>
+  <si>
+    <t>MABG</t>
+  </si>
+  <si>
+    <t>DEDEL</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>SEDPAR</t>
+  </si>
+  <si>
+    <t>FILPO</t>
+  </si>
+  <si>
+    <t>DHRS</t>
+  </si>
+  <si>
+    <t>TGD</t>
+  </si>
+  <si>
+    <t>AHLOSA</t>
+  </si>
+  <si>
+    <t>nilpo</t>
+  </si>
+  <si>
+    <t>PHILPO</t>
+  </si>
+  <si>
+    <t>LCREAT</t>
+  </si>
+  <si>
+    <t>ARSD</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>PCLPH_V3</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>HCREAT</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>HNVRR</t>
+  </si>
+  <si>
+    <t>INTILPO</t>
+  </si>
+  <si>
+    <t>REFOD</t>
+  </si>
+  <si>
+    <t>PWBC</t>
+  </si>
+  <si>
+    <t>DAICU</t>
+  </si>
+  <si>
+    <t>RDIS_V3</t>
+  </si>
+  <si>
+    <t>DWFRD</t>
+  </si>
+  <si>
+    <t>NASSESS</t>
+  </si>
+  <si>
+    <t>GESTR</t>
+  </si>
+  <si>
+    <t>Home ventilation</t>
+  </si>
+  <si>
+    <t>Time treatment first withdrawn</t>
+  </si>
+  <si>
+    <t>Admission currently/recently pregnant</t>
+  </si>
+  <si>
+    <t>Date of death</t>
+  </si>
+  <si>
+    <t>Lowest systolic BP</t>
+  </si>
+  <si>
+    <t>Secondary reason for admission to your unit - text description</t>
+  </si>
+  <si>
+    <t>Classification of surgery</t>
+  </si>
+  <si>
+    <t>Highest ventilated respiratory rate</t>
+  </si>
+  <si>
+    <t>Highest serum glucose</t>
+  </si>
+  <si>
+    <t>Status at discharge from your hospital</t>
+  </si>
+  <si>
+    <t>Basic cardiovascular support days</t>
+  </si>
+  <si>
+    <t>Chemotherapy</t>
+  </si>
+  <si>
+    <t>Lowest heart rate</t>
+  </si>
+  <si>
+    <t>Date of discharge from your hospital</t>
+  </si>
+  <si>
+    <t>Serum potassium missing</t>
+  </si>
+  <si>
+    <t>Location (in)</t>
+  </si>
+  <si>
+    <t>Pre-admission blood lactate</t>
+  </si>
+  <si>
+    <t>Time of discharge from your unit</t>
+  </si>
+  <si>
+    <t>Main organism causing first unit-acquired infection in blood</t>
+  </si>
+  <si>
+    <t>Cardiopulmonary resuscitation (CPR) within 24 hours prior to admission to your unit</t>
+  </si>
+  <si>
+    <t>Status at ultimate discharge from hospital</t>
+  </si>
+  <si>
+    <t>Level 0 days</t>
+  </si>
+  <si>
+    <t>Time of admission to your unit</t>
+  </si>
+  <si>
+    <t>Highest heart rate</t>
+  </si>
+  <si>
+    <t>Assent for solid organ or tissue donation</t>
+  </si>
+  <si>
+    <t>Time body removed from your unit</t>
+  </si>
+  <si>
+    <t>Chronic myelogenous/lymphocytic leukaemia</t>
+  </si>
+  <si>
+    <t>Inhalation injury</t>
+  </si>
+  <si>
+    <t>Associated PaCO2 (from arterial blood gas with lowest PaO2)</t>
+  </si>
+  <si>
+    <t>Date of last critical care visit prior to this admission to your unit</t>
+  </si>
+  <si>
+    <t>PaO2 from arterial blood gas with lowest PaO2</t>
+  </si>
+  <si>
+    <t>Length of stay in the critical care unit (hours)</t>
+  </si>
+  <si>
+    <t>Length of stay in hospital housing the critical care unit before admission to critical care</t>
+  </si>
+  <si>
+    <t>Advanced cardiovascular support days</t>
+  </si>
+  <si>
+    <t>Highest serum urea</t>
+  </si>
+  <si>
+    <t>Acute hospital outcome</t>
+  </si>
+  <si>
+    <t>Admission type</t>
+  </si>
+  <si>
+    <t>Date of original admission to ICU/HDU</t>
+  </si>
+  <si>
+    <t>Very severe cardiovascular disease</t>
+  </si>
+  <si>
+    <t>Primary reason for admission to your unit</t>
+  </si>
+  <si>
+    <t>Biopsy proven cirrhosis</t>
+  </si>
+  <si>
+    <t>Number of unit-acquired infections present in blood</t>
+  </si>
+  <si>
+    <t>Lowest platelet count</t>
+  </si>
+  <si>
+    <t>White blood cell count missing</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Highest systolic BP</t>
+  </si>
+  <si>
+    <t>Type of adult ICU/HDU (out)</t>
+  </si>
+  <si>
+    <t>Pre-admission serum sodium</t>
+  </si>
+  <si>
+    <t>Congenital immunohumoral or cellular immune deficiency state</t>
+  </si>
+  <si>
+    <t>Number of stillbirths</t>
+  </si>
+  <si>
+    <t>Base excess (calculated)</t>
+  </si>
+  <si>
+    <t>Body mass index</t>
+  </si>
+  <si>
+    <t>Actual date of delivery of recent pregnancy</t>
+  </si>
+  <si>
+    <t>Highest non-central temperature</t>
+  </si>
+  <si>
+    <t>Lowest non-ventilated respiratory rate</t>
+  </si>
+  <si>
+    <t>Pre-admission serum glucose</t>
+  </si>
+  <si>
+    <t>Hepatic encephalopathy</t>
+  </si>
+  <si>
+    <t>Acute hospital length of stay before admission to critical care</t>
+  </si>
+  <si>
+    <t>Number of beds in the unit</t>
+  </si>
+  <si>
+    <t>Sector of other hospital (out)</t>
+  </si>
+  <si>
+    <t>Weight estimated</t>
+  </si>
+  <si>
+    <t>pH/H+ from arterial blood gas with lowest pH (or highest H+)</t>
+  </si>
+  <si>
+    <t>Primary reason for admission to your unit - text description</t>
+  </si>
+  <si>
+    <t>Date treatment first withdrawn</t>
+  </si>
+  <si>
+    <t>Highest blood lactate</t>
+  </si>
+  <si>
+    <t>MRSA present</t>
+  </si>
+  <si>
+    <t>Associated pH/H+ (from arterial blood gas with lowest PaO2) (units standardised to pH)</t>
+  </si>
+  <si>
+    <t>Associated absolute neutrophil count (from Highest white blood cell count)</t>
+  </si>
+  <si>
+    <t>Healthcare Resource Group</t>
+  </si>
+  <si>
+    <t>Associated eye component</t>
+  </si>
+  <si>
+    <t>PaO2/FiO2 (from arterial blood gas with lowest PaO2)</t>
+  </si>
+  <si>
+    <t>Hospital housing location (out)</t>
+  </si>
+  <si>
+    <t>Date of admission to your hospital</t>
+  </si>
+  <si>
+    <t>Adult ICU/HDU within your critical care transfer group (in)</t>
+  </si>
+  <si>
+    <t>Paired diastolic BP for lowest systolic BP</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>Pre-admission serum bicarbonate</t>
+  </si>
+  <si>
+    <t>Date body removed from your unit</t>
+  </si>
+  <si>
+    <t>Ultimate primary reason for admission to your unit - text description</t>
+  </si>
+  <si>
+    <t>Serum urea missing</t>
+  </si>
+  <si>
+    <t>Pre-admission haemoglobin</t>
+  </si>
+  <si>
+    <t>Ultimate critical care outcome</t>
+  </si>
+  <si>
+    <t>Highest serum sodium</t>
+  </si>
+  <si>
+    <t>Serum glucose missing</t>
+  </si>
+  <si>
+    <t>Length of stay in hospital housing the critical care unit after discharge from critical care</t>
+  </si>
+  <si>
+    <t>Time when fully ready to discharge</t>
+  </si>
+  <si>
+    <t>Highest serum potassium</t>
+  </si>
+  <si>
+    <t>Destination post-discharge from your hospital</t>
+  </si>
+  <si>
+    <t>Neurological support days</t>
+  </si>
+  <si>
+    <t>Hospital name</t>
+  </si>
+  <si>
+    <t>Date of ultimate discharge from hospital</t>
+  </si>
+  <si>
+    <t>Level 2 days</t>
+  </si>
+  <si>
+    <t>ICNARC Physiology Score</t>
+  </si>
+  <si>
+    <t>Dermatological support days</t>
+  </si>
+  <si>
+    <t>Radiotherapy</t>
+  </si>
+  <si>
+    <t>Clostridium difficile present</t>
+  </si>
+  <si>
+    <t>Prior location (in)</t>
+  </si>
+  <si>
+    <t>CURB-65 score</t>
+  </si>
+  <si>
+    <t>Timeliness of discharge from your unit</t>
+  </si>
+  <si>
+    <t>Highest serum bicarbonate</t>
+  </si>
+  <si>
+    <t>Platelet count missing</t>
+  </si>
+  <si>
+    <t>Pre-admission serum urea</t>
+  </si>
+  <si>
+    <t>Paired diastolic BP for highest systolic BP</t>
+  </si>
+  <si>
+    <t>Hospital housing non-transient location (in)</t>
+  </si>
+  <si>
+    <t>Baseline creatinine (estimated by MDRD formula)</t>
+  </si>
+  <si>
+    <t>Serum creatinine missing</t>
+  </si>
+  <si>
+    <t>Serum sodium missing</t>
+  </si>
+  <si>
+    <t>Liver support days</t>
+  </si>
+  <si>
+    <t>Highest central temperature</t>
+  </si>
+  <si>
+    <t>Associated absolute neutrophil count (from Lowest white blood cell count)</t>
+  </si>
+  <si>
+    <t>Date of original admission to/attendance at acute hospital</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Associated intubation status</t>
+  </si>
+  <si>
+    <t>Residence prior to admission to acute hospital</t>
+  </si>
+  <si>
+    <t>Associated PaCO2 (from arterial blood gas with lowest PaO2) (units standardised to kPa)</t>
+  </si>
+  <si>
+    <t>Number of live births (babies) and/or stillbirths from previous pregnancies</t>
+  </si>
+  <si>
+    <t>Steroid treatment</t>
+  </si>
+  <si>
+    <t>Acute myelogenous/lymphocytic leukaemia or multiple myeloma</t>
+  </si>
+  <si>
+    <t>Hospital housing transient location (in)</t>
+  </si>
+  <si>
+    <t>Critical care unit outcome</t>
+  </si>
+  <si>
+    <t>APACHE II score</t>
+  </si>
+  <si>
+    <t>Dependency prior to admission to acute hospital</t>
+  </si>
+  <si>
+    <t>Lower layer Super Output Area</t>
+  </si>
+  <si>
+    <t>Lowest haemoglobin</t>
+  </si>
+  <si>
+    <t>Pupil reactivity (left eye)</t>
+  </si>
+  <si>
+    <t>Lowest central temperature</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Location (out)</t>
+  </si>
+  <si>
+    <t>Solid organ or tissue donor</t>
+  </si>
+  <si>
+    <t>Acute kidney injury classification (KDIGO)</t>
+  </si>
+  <si>
+    <t>Secondary reason for admission to your unit</t>
+  </si>
+  <si>
+    <t>Gastrointestinal support days</t>
+  </si>
+  <si>
+    <t>Haemoglobin missing</t>
+  </si>
+  <si>
+    <t>Pupil reactivity missing</t>
+  </si>
+  <si>
+    <t>Highest haemoglobin</t>
+  </si>
+  <si>
+    <t>Admission type (elective surgery, emergency surgery, non-surgical)</t>
+  </si>
+  <si>
+    <t>Lowest serum sodium</t>
+  </si>
+  <si>
+    <t>Burned surface area</t>
+  </si>
+  <si>
+    <t>Past medical history of one or more of listed conditions</t>
+  </si>
+  <si>
+    <t>Residence post-discharge from acute hospital</t>
+  </si>
+  <si>
+    <t>Associated verbal component</t>
+  </si>
+  <si>
+    <t>Total length of stay in hospital housing the critical care unit</t>
+  </si>
+  <si>
+    <t>Lowest total Glasgow Coma Score</t>
+  </si>
+  <si>
+    <t>Height estimated</t>
+  </si>
+  <si>
+    <t>Lowest serum potassium</t>
+  </si>
+  <si>
+    <t>Critical care unit name</t>
+  </si>
+  <si>
+    <t>Transferring unit identifier (out)</t>
+  </si>
+  <si>
+    <t>Status at discharge from your unit</t>
+  </si>
+  <si>
+    <t>Severe respiratory disease</t>
+  </si>
+  <si>
+    <t>Admission for pre-surgical preparation</t>
+  </si>
+  <si>
+    <t>Critical care visit post-discharge from your unit</t>
+  </si>
+  <si>
+    <t>Serum bicarbonate missing</t>
+  </si>
+  <si>
+    <t>VRE present</t>
+  </si>
+  <si>
+    <t>Blood lactate missing</t>
+  </si>
+  <si>
+    <t>Highest white blood cell count</t>
+  </si>
+  <si>
+    <t>Lowest ventilated respiratory rate</t>
+  </si>
+  <si>
+    <t>Total acute hospital length of stay</t>
+  </si>
+  <si>
+    <t>Associated absolute neutrophil count (from Pre-admission white blood cell count)</t>
+  </si>
+  <si>
+    <t>Urine output missing</t>
+  </si>
+  <si>
+    <t>Age in whole years at admission to the critical care unit</t>
+  </si>
+  <si>
+    <t>Antimicrobial use after 48 hours in your unit</t>
+  </si>
+  <si>
+    <t>Highest level of care received in the first 24 hours in your unit</t>
+  </si>
+  <si>
+    <t>Date of declaration of brainstem death</t>
+  </si>
+  <si>
+    <t>Pupil reactivity (right eye)</t>
+  </si>
+  <si>
+    <t>Type of adult ICU/HDU (in)</t>
+  </si>
+  <si>
+    <t>Brainstem death declared</t>
+  </si>
+  <si>
+    <t>Basic respiratory support days</t>
+  </si>
+  <si>
+    <t>Pre-admission serum creatinine</t>
+  </si>
+  <si>
+    <t>Outcome from hospital housing the critical care unit</t>
+  </si>
+  <si>
+    <t>Lowest white blood cell count</t>
+  </si>
+  <si>
+    <t>Metastatic disease</t>
+  </si>
+  <si>
+    <t>Sector of other hospital (in)</t>
+  </si>
+  <si>
+    <t>Critical care unit type</t>
+  </si>
+  <si>
+    <t>Associated motor component</t>
+  </si>
+  <si>
+    <t>Associated PaCO2 from arterial blood gas with lowest pH (or highest H+) (units standardised to kPa)</t>
+  </si>
+  <si>
+    <t>Time of declaration of brainstem death</t>
+  </si>
+  <si>
+    <t>Date of ultimate discharge from ICU/HDU</t>
+  </si>
+  <si>
+    <t>Renal support days</t>
+  </si>
+  <si>
+    <t>Status at ultimate discharge from ICU/HDU</t>
+  </si>
+  <si>
+    <t>Level 1 days</t>
+  </si>
+  <si>
+    <t>Specialty code prior to admission to your unit</t>
+  </si>
+  <si>
+    <t>Transferring unit identifier (in)</t>
+  </si>
+  <si>
+    <t>Pre-admission serum potassium</t>
+  </si>
+  <si>
+    <t>Ultimate primary reason for admission to your unit</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Gestation of current pregnancy</t>
+  </si>
+  <si>
+    <t>Date of first critical care visit post-discharge from your unit</t>
+  </si>
+  <si>
+    <t>Pre-admission platelet count</t>
+  </si>
+  <si>
+    <t>Treatment withheld/withdrawn</t>
+  </si>
+  <si>
+    <t>Lowest non-central temperature</t>
+  </si>
+  <si>
+    <t>Time of death</t>
+  </si>
+  <si>
+    <t>Evidence available to assess past medical history</t>
+  </si>
+  <si>
+    <t>Other condition in past medical history relevant to this admission</t>
+  </si>
+  <si>
+    <t>Level of care received at discharge from your unit</t>
+  </si>
+  <si>
+    <t>Evidence available to abstract physiology data</t>
+  </si>
+  <si>
+    <t>Index of Multiple Deprivation 2019</t>
+  </si>
+  <si>
+    <t>Expected dependency post-acute hospital discharge</t>
+  </si>
+  <si>
+    <t>Timeliness of admission to your unit</t>
+  </si>
+  <si>
+    <t>Mechanically ventilated during the first 24 hours</t>
+  </si>
+  <si>
+    <t>Level 3 days</t>
+  </si>
+  <si>
+    <t>Chronic renal replacement therapy</t>
+  </si>
+  <si>
+    <t>Date of discharge from your unit</t>
+  </si>
+  <si>
+    <t>Lowest serum bicarbonate</t>
+  </si>
+  <si>
+    <t>Arterial blood gases missing</t>
+  </si>
+  <si>
+    <t>Expected date of delivery of current pregnancy</t>
+  </si>
+  <si>
+    <t>Urine output</t>
+  </si>
+  <si>
+    <t>Sedated or paralysed and sedated for whole of first 24 hours in your unit</t>
+  </si>
+  <si>
+    <t>Associated FIO2 (from arterial blood gas with lowest PaO2)</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Adult ICU/HDU within your critical care transfer group (out)</t>
+  </si>
+  <si>
+    <t>Acute hospital length of stay after discharge from critical care</t>
+  </si>
+  <si>
+    <t>PaO2 from arterial blood gas with lowest PaO2 (units standardised to kPa)</t>
+  </si>
+  <si>
+    <t>Associated pH/H+ (from arterial blood gas with lowest PaO2)</t>
+  </si>
+  <si>
+    <t>Lowest serum creatinine</t>
+  </si>
+  <si>
+    <t>Advanced respiratory support days</t>
+  </si>
+  <si>
+    <t>Portal hypertension</t>
+  </si>
+  <si>
+    <t>Associated PaCO2 from arterial blood gas with lowest pH (or highest H+)</t>
+  </si>
+  <si>
+    <t>Lowest serum glucose</t>
+  </si>
+  <si>
+    <t>Highest serum creatinine</t>
+  </si>
+  <si>
+    <t>Critical care visit prior to this admission to your unit</t>
+  </si>
+  <si>
+    <t>Highest non-ventilated respiratory rate</t>
+  </si>
+  <si>
+    <t>Associated intubation status (from arterial blood gas with lowest PaO2)</t>
+  </si>
+  <si>
+    <t>Referred to transplant co-ordinator for solid organ or tissue donation</t>
+  </si>
+  <si>
+    <t>Pre-admission white blood cell count</t>
+  </si>
+  <si>
+    <t>Date of admission to your unit</t>
+  </si>
+  <si>
+    <t>Reason for discharge from your unit</t>
+  </si>
+  <si>
+    <t>Date when fully ready to discharge</t>
+  </si>
+  <si>
+    <t>Neurological status</t>
+  </si>
+  <si>
+    <t>Gestation at delivery of recent pregnancy</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>ICNARC_LINKAGE</t>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>LAST_REPORT_DATE</t>
+  </si>
+  <si>
+    <t>HOUSING_TYPE</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>LINKED_CARE_HOMES</t>
+  </si>
+  <si>
+    <t>PLACES</t>
+  </si>
+  <si>
+    <t>PLACES_M2</t>
+  </si>
+  <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
+    <t>URN_E</t>
+  </si>
+  <si>
+    <t>Date in which the the care home was registered</t>
+  </si>
+  <si>
+    <t>Local Authority of the care home</t>
+  </si>
+  <si>
+    <t>Month and year in which the care home last reported</t>
+  </si>
+  <si>
+    <t>Housing type of the care home</t>
+  </si>
+  <si>
+    <t>Size of the care home</t>
+  </si>
+  <si>
+    <t>Number of care homes linked with the given care home</t>
+  </si>
+  <si>
+    <t>Maximum number of places at the care home</t>
+  </si>
+  <si>
+    <t>List of the services provided by the care home</t>
+  </si>
+  <si>
+    <t>Encrypted System ID for Care home record</t>
+  </si>
+  <si>
+    <t>Encrypted unique record number (URN) of the care home. Note that the unencrypted URN links to a specific care home from the care inspectorate Wales list.</t>
+  </si>
+  <si>
+    <t>CARE_HOMES_20200708</t>
   </si>
 </sst>
 </file>
@@ -4817,4 +7112,6116 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" t="s">
+        <v>515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" t="s">
+        <v>519</v>
+      </c>
+      <c r="C11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B17" t="s">
+        <v>522</v>
+      </c>
+      <c r="C17" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>523</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21" t="s">
+        <v>525</v>
+      </c>
+      <c r="C21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" t="s">
+        <v>526</v>
+      </c>
+      <c r="C22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>441</v>
+      </c>
+      <c r="B23" t="s">
+        <v>513</v>
+      </c>
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B25" t="s">
+        <v>527</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>528</v>
+      </c>
+      <c r="C27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" t="s">
+        <v>529</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B29" t="s">
+        <v>530</v>
+      </c>
+      <c r="C29" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B30" t="s">
+        <v>513</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>448</v>
+      </c>
+      <c r="B31" t="s">
+        <v>513</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32" t="s">
+        <v>531</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>450</v>
+      </c>
+      <c r="B33" t="s">
+        <v>513</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35" t="s">
+        <v>513</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>454</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>455</v>
+      </c>
+      <c r="B38" t="s">
+        <v>532</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>456</v>
+      </c>
+      <c r="B39" t="s">
+        <v>533</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B40" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>458</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>459</v>
+      </c>
+      <c r="B42" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D42" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B43" t="s">
+        <v>513</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>461</v>
+      </c>
+      <c r="B44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C45" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>463</v>
+      </c>
+      <c r="B46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D46" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>464</v>
+      </c>
+      <c r="B47" t="s">
+        <v>537</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>465</v>
+      </c>
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>466</v>
+      </c>
+      <c r="B49" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>467</v>
+      </c>
+      <c r="B50" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>468</v>
+      </c>
+      <c r="B51" t="s">
+        <v>538</v>
+      </c>
+      <c r="C51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>469</v>
+      </c>
+      <c r="B52" t="s">
+        <v>539</v>
+      </c>
+      <c r="C52" t="s">
+        <v>304</v>
+      </c>
+      <c r="D52" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>470</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>471</v>
+      </c>
+      <c r="B54" t="s">
+        <v>540</v>
+      </c>
+      <c r="C54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>472</v>
+      </c>
+      <c r="B55" t="s">
+        <v>541</v>
+      </c>
+      <c r="C55" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>473</v>
+      </c>
+      <c r="B56" t="s">
+        <v>542</v>
+      </c>
+      <c r="C56" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>474</v>
+      </c>
+      <c r="B57" t="s">
+        <v>543</v>
+      </c>
+      <c r="C57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D57" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>475</v>
+      </c>
+      <c r="B58" t="s">
+        <v>544</v>
+      </c>
+      <c r="C58" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>476</v>
+      </c>
+      <c r="B59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C59" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>477</v>
+      </c>
+      <c r="B60" t="s">
+        <v>545</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>478</v>
+      </c>
+      <c r="B61" t="s">
+        <v>546</v>
+      </c>
+      <c r="C61" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>479</v>
+      </c>
+      <c r="B62" t="s">
+        <v>547</v>
+      </c>
+      <c r="C62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>480</v>
+      </c>
+      <c r="B63" t="s">
+        <v>548</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>481</v>
+      </c>
+      <c r="B64" t="s">
+        <v>513</v>
+      </c>
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>482</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>483</v>
+      </c>
+      <c r="B66" t="s">
+        <v>549</v>
+      </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>484</v>
+      </c>
+      <c r="B67" t="s">
+        <v>513</v>
+      </c>
+      <c r="C67" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>485</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>486</v>
+      </c>
+      <c r="B69" t="s">
+        <v>550</v>
+      </c>
+      <c r="C69" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>487</v>
+      </c>
+      <c r="B70" t="s">
+        <v>551</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>488</v>
+      </c>
+      <c r="B71" t="s">
+        <v>552</v>
+      </c>
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>489</v>
+      </c>
+      <c r="B72" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" t="s">
+        <v>309</v>
+      </c>
+      <c r="D72" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>490</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" t="s">
+        <v>553</v>
+      </c>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>492</v>
+      </c>
+      <c r="B75" t="s">
+        <v>513</v>
+      </c>
+      <c r="C75" t="s">
+        <v>304</v>
+      </c>
+      <c r="D75" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>494</v>
+      </c>
+      <c r="B77" t="s">
+        <v>513</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>495</v>
+      </c>
+      <c r="B78" t="s">
+        <v>554</v>
+      </c>
+      <c r="C78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>496</v>
+      </c>
+      <c r="B79" t="s">
+        <v>513</v>
+      </c>
+      <c r="C79" t="s">
+        <v>304</v>
+      </c>
+      <c r="D79" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>497</v>
+      </c>
+      <c r="B80" t="s">
+        <v>513</v>
+      </c>
+      <c r="C80" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>498</v>
+      </c>
+      <c r="B81" t="s">
+        <v>555</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>499</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>500</v>
+      </c>
+      <c r="B83" t="s">
+        <v>513</v>
+      </c>
+      <c r="C83" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>501</v>
+      </c>
+      <c r="B84" t="s">
+        <v>556</v>
+      </c>
+      <c r="C84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>502</v>
+      </c>
+      <c r="B85" t="s">
+        <v>557</v>
+      </c>
+      <c r="C85" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>503</v>
+      </c>
+      <c r="B86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>504</v>
+      </c>
+      <c r="B87" t="s">
+        <v>558</v>
+      </c>
+      <c r="C87" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>505</v>
+      </c>
+      <c r="B88" t="s">
+        <v>513</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>506</v>
+      </c>
+      <c r="B89" t="s">
+        <v>559</v>
+      </c>
+      <c r="C89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>507</v>
+      </c>
+      <c r="B90" t="s">
+        <v>560</v>
+      </c>
+      <c r="C90" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>508</v>
+      </c>
+      <c r="B91" t="s">
+        <v>513</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>509</v>
+      </c>
+      <c r="B92" t="s">
+        <v>513</v>
+      </c>
+      <c r="C92" t="s">
+        <v>304</v>
+      </c>
+      <c r="D92" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>510</v>
+      </c>
+      <c r="B93" t="s">
+        <v>561</v>
+      </c>
+      <c r="C93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D93" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>511</v>
+      </c>
+      <c r="B94" t="s">
+        <v>513</v>
+      </c>
+      <c r="C94" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B5" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>569</v>
+      </c>
+      <c r="B9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>573</v>
+      </c>
+      <c r="B13" t="s">
+        <v>584</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B9" t="s">
+        <v>593</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B11" t="s">
+        <v>595</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>606</v>
+      </c>
+      <c r="B11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>608</v>
+      </c>
+      <c r="B13" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B14" t="s">
+        <v>672</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>610</v>
+      </c>
+      <c r="B16" t="s">
+        <v>673</v>
+      </c>
+      <c r="C16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B17" t="s">
+        <v>674</v>
+      </c>
+      <c r="C17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>612</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>675</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>614</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>615</v>
+      </c>
+      <c r="B21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D21" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>616</v>
+      </c>
+      <c r="B22" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>617</v>
+      </c>
+      <c r="B23" t="s">
+        <v>668</v>
+      </c>
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>618</v>
+      </c>
+      <c r="B24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" t="s">
+        <v>676</v>
+      </c>
+      <c r="C25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>619</v>
+      </c>
+      <c r="B26" t="s">
+        <v>677</v>
+      </c>
+      <c r="C26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>620</v>
+      </c>
+      <c r="B27" t="s">
+        <v>668</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>621</v>
+      </c>
+      <c r="B29" t="s">
+        <v>670</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>622</v>
+      </c>
+      <c r="B30" t="s">
+        <v>678</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>623</v>
+      </c>
+      <c r="B31" t="s">
+        <v>679</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>624</v>
+      </c>
+      <c r="B32" t="s">
+        <v>680</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33" t="s">
+        <v>681</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>626</v>
+      </c>
+      <c r="B34" t="s">
+        <v>670</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>627</v>
+      </c>
+      <c r="B35" t="s">
+        <v>682</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>628</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>309</v>
+      </c>
+      <c r="D36" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>629</v>
+      </c>
+      <c r="B37" t="s">
+        <v>668</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>630</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>631</v>
+      </c>
+      <c r="B39" t="s">
+        <v>683</v>
+      </c>
+      <c r="C39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D39" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>632</v>
+      </c>
+      <c r="B40" t="s">
+        <v>684</v>
+      </c>
+      <c r="C40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>633</v>
+      </c>
+      <c r="B41" t="s">
+        <v>670</v>
+      </c>
+      <c r="C41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" t="s">
+        <v>685</v>
+      </c>
+      <c r="C42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D42" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>636</v>
+      </c>
+      <c r="B44" t="s">
+        <v>686</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>637</v>
+      </c>
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>523</v>
+      </c>
+      <c r="C46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D46" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>638</v>
+      </c>
+      <c r="B47" t="s">
+        <v>687</v>
+      </c>
+      <c r="C47" t="s">
+        <v>703</v>
+      </c>
+      <c r="D47" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>639</v>
+      </c>
+      <c r="B48" t="s">
+        <v>668</v>
+      </c>
+      <c r="C48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>640</v>
+      </c>
+      <c r="B49" t="s">
+        <v>688</v>
+      </c>
+      <c r="C49" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>641</v>
+      </c>
+      <c r="B50" t="s">
+        <v>689</v>
+      </c>
+      <c r="C50" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>642</v>
+      </c>
+      <c r="B51" t="s">
+        <v>690</v>
+      </c>
+      <c r="C51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>643</v>
+      </c>
+      <c r="B52" t="s">
+        <v>691</v>
+      </c>
+      <c r="C52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>644</v>
+      </c>
+      <c r="B53" t="s">
+        <v>692</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>645</v>
+      </c>
+      <c r="B54" t="s">
+        <v>693</v>
+      </c>
+      <c r="C54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>646</v>
+      </c>
+      <c r="B55" t="s">
+        <v>670</v>
+      </c>
+      <c r="C55" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>647</v>
+      </c>
+      <c r="B56" t="s">
+        <v>670</v>
+      </c>
+      <c r="C56" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>648</v>
+      </c>
+      <c r="B57" t="s">
+        <v>694</v>
+      </c>
+      <c r="C57" t="s">
+        <v>304</v>
+      </c>
+      <c r="D57" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>649</v>
+      </c>
+      <c r="B58" t="s">
+        <v>695</v>
+      </c>
+      <c r="C58" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>650</v>
+      </c>
+      <c r="B59" t="s">
+        <v>684</v>
+      </c>
+      <c r="C59" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>651</v>
+      </c>
+      <c r="B60" t="s">
+        <v>696</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>652</v>
+      </c>
+      <c r="B61" t="s">
+        <v>697</v>
+      </c>
+      <c r="C61" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>653</v>
+      </c>
+      <c r="B62" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>654</v>
+      </c>
+      <c r="B63" t="s">
+        <v>698</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>655</v>
+      </c>
+      <c r="B64" t="s">
+        <v>699</v>
+      </c>
+      <c r="C64" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>656</v>
+      </c>
+      <c r="B65" t="s">
+        <v>700</v>
+      </c>
+      <c r="C65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>657</v>
+      </c>
+      <c r="B66" t="s">
+        <v>668</v>
+      </c>
+      <c r="C66" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>658</v>
+      </c>
+      <c r="B67" t="s">
+        <v>701</v>
+      </c>
+      <c r="C67" t="s">
+        <v>304</v>
+      </c>
+      <c r="D67" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>659</v>
+      </c>
+      <c r="B68" t="s">
+        <v>702</v>
+      </c>
+      <c r="C68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>660</v>
+      </c>
+      <c r="B69" t="s">
+        <v>670</v>
+      </c>
+      <c r="C69" t="s">
+        <v>304</v>
+      </c>
+      <c r="D69" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>661</v>
+      </c>
+      <c r="B70" t="s">
+        <v>689</v>
+      </c>
+      <c r="C70" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" t="s">
+        <v>936</v>
+      </c>
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B7" t="s">
+        <v>938</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B9" t="s">
+        <v>940</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B10" t="s">
+        <v>941</v>
+      </c>
+      <c r="C10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>714</v>
+      </c>
+      <c r="B11" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B12" t="s">
+        <v>943</v>
+      </c>
+      <c r="C12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>716</v>
+      </c>
+      <c r="B13" t="s">
+        <v>944</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>717</v>
+      </c>
+      <c r="B14" t="s">
+        <v>945</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>718</v>
+      </c>
+      <c r="B15" t="s">
+        <v>946</v>
+      </c>
+      <c r="C15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>719</v>
+      </c>
+      <c r="B16" t="s">
+        <v>947</v>
+      </c>
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>720</v>
+      </c>
+      <c r="B17" t="s">
+        <v>948</v>
+      </c>
+      <c r="C17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>721</v>
+      </c>
+      <c r="B18" t="s">
+        <v>949</v>
+      </c>
+      <c r="C18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>722</v>
+      </c>
+      <c r="B19" t="s">
+        <v>950</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>723</v>
+      </c>
+      <c r="B20" t="s">
+        <v>951</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>724</v>
+      </c>
+      <c r="B21" t="s">
+        <v>952</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>725</v>
+      </c>
+      <c r="B22" t="s">
+        <v>953</v>
+      </c>
+      <c r="C22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>726</v>
+      </c>
+      <c r="B23" t="s">
+        <v>954</v>
+      </c>
+      <c r="C23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>727</v>
+      </c>
+      <c r="B24" t="s">
+        <v>955</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>728</v>
+      </c>
+      <c r="B25" t="s">
+        <v>956</v>
+      </c>
+      <c r="C25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>729</v>
+      </c>
+      <c r="B26" t="s">
+        <v>957</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>730</v>
+      </c>
+      <c r="B27" t="s">
+        <v>958</v>
+      </c>
+      <c r="C27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>731</v>
+      </c>
+      <c r="B28" t="s">
+        <v>959</v>
+      </c>
+      <c r="C28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>732</v>
+      </c>
+      <c r="B29" t="s">
+        <v>960</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>733</v>
+      </c>
+      <c r="B30" t="s">
+        <v>961</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>734</v>
+      </c>
+      <c r="B31" t="s">
+        <v>962</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>735</v>
+      </c>
+      <c r="B32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>736</v>
+      </c>
+      <c r="B33" t="s">
+        <v>964</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>737</v>
+      </c>
+      <c r="B34" t="s">
+        <v>965</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>738</v>
+      </c>
+      <c r="B35" t="s">
+        <v>966</v>
+      </c>
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>739</v>
+      </c>
+      <c r="B36" t="s">
+        <v>967</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>740</v>
+      </c>
+      <c r="B37" t="s">
+        <v>968</v>
+      </c>
+      <c r="C37" t="s">
+        <v>306</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>741</v>
+      </c>
+      <c r="B38" t="s">
+        <v>969</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>742</v>
+      </c>
+      <c r="B39" t="s">
+        <v>970</v>
+      </c>
+      <c r="C39" t="s">
+        <v>311</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>743</v>
+      </c>
+      <c r="B40" t="s">
+        <v>971</v>
+      </c>
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>744</v>
+      </c>
+      <c r="B41" t="s">
+        <v>972</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>745</v>
+      </c>
+      <c r="B42" t="s">
+        <v>973</v>
+      </c>
+      <c r="C42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>746</v>
+      </c>
+      <c r="B43" t="s">
+        <v>974</v>
+      </c>
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>747</v>
+      </c>
+      <c r="B44" t="s">
+        <v>975</v>
+      </c>
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>748</v>
+      </c>
+      <c r="B45" t="s">
+        <v>976</v>
+      </c>
+      <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>749</v>
+      </c>
+      <c r="B46" t="s">
+        <v>977</v>
+      </c>
+      <c r="C46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>750</v>
+      </c>
+      <c r="B47" t="s">
+        <v>978</v>
+      </c>
+      <c r="C47" t="s">
+        <v>306</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>751</v>
+      </c>
+      <c r="B48" t="s">
+        <v>979</v>
+      </c>
+      <c r="C48" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>752</v>
+      </c>
+      <c r="B49" t="s">
+        <v>980</v>
+      </c>
+      <c r="C49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>753</v>
+      </c>
+      <c r="B50" t="s">
+        <v>981</v>
+      </c>
+      <c r="C50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>754</v>
+      </c>
+      <c r="B51" t="s">
+        <v>982</v>
+      </c>
+      <c r="C51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>755</v>
+      </c>
+      <c r="B52" t="s">
+        <v>983</v>
+      </c>
+      <c r="C52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>756</v>
+      </c>
+      <c r="B53" t="s">
+        <v>984</v>
+      </c>
+      <c r="C53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>757</v>
+      </c>
+      <c r="B54" t="s">
+        <v>985</v>
+      </c>
+      <c r="C54" t="s">
+        <v>311</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>758</v>
+      </c>
+      <c r="B55" t="s">
+        <v>986</v>
+      </c>
+      <c r="C55" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>759</v>
+      </c>
+      <c r="B56" t="s">
+        <v>987</v>
+      </c>
+      <c r="C56" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>760</v>
+      </c>
+      <c r="B57" t="s">
+        <v>988</v>
+      </c>
+      <c r="C57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>761</v>
+      </c>
+      <c r="B58" t="s">
+        <v>989</v>
+      </c>
+      <c r="C58" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>762</v>
+      </c>
+      <c r="B59" t="s">
+        <v>990</v>
+      </c>
+      <c r="C59" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>763</v>
+      </c>
+      <c r="B60" t="s">
+        <v>991</v>
+      </c>
+      <c r="C60" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>764</v>
+      </c>
+      <c r="B61" t="s">
+        <v>992</v>
+      </c>
+      <c r="C61" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>765</v>
+      </c>
+      <c r="B62" t="s">
+        <v>993</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>766</v>
+      </c>
+      <c r="B63" t="s">
+        <v>994</v>
+      </c>
+      <c r="C63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>767</v>
+      </c>
+      <c r="B64" t="s">
+        <v>995</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>768</v>
+      </c>
+      <c r="B65" t="s">
+        <v>996</v>
+      </c>
+      <c r="C65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>769</v>
+      </c>
+      <c r="B66" t="s">
+        <v>997</v>
+      </c>
+      <c r="C66" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>770</v>
+      </c>
+      <c r="B67" t="s">
+        <v>998</v>
+      </c>
+      <c r="C67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>771</v>
+      </c>
+      <c r="B68" t="s">
+        <v>999</v>
+      </c>
+      <c r="C68" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>772</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C69" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>773</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C70" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>774</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C71" t="s">
+        <v>306</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>775</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C72" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>776</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>777</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C74" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>778</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C75" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>779</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C76" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>780</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C77" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>781</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C78" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>782</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C79" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>783</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C80" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>784</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C81" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>785</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>786</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C83" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>787</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C84" t="s">
+        <v>306</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>788</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C85" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>789</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>790</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C87" t="s">
+        <v>309</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>791</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C88" t="s">
+        <v>305</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>792</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>793</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C90" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>794</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>795</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C92" t="s">
+        <v>311</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>796</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>797</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C94" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>798</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C95" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>799</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C96" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>800</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C97" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>801</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C98" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>802</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C99" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>803</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C100" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>804</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C101" t="s">
+        <v>305</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>805</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C102" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>806</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C103" t="s">
+        <v>305</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>807</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C104" t="s">
+        <v>306</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>808</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C105" t="s">
+        <v>309</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>809</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C106" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>810</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C107" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>811</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C108" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>812</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C109" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>813</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C110" t="s">
+        <v>305</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>814</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C111" t="s">
+        <v>305</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>815</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C112" t="s">
+        <v>311</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>816</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C113" t="s">
+        <v>306</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>817</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C114" t="s">
+        <v>306</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>818</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C115" t="s">
+        <v>309</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>819</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C116" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>820</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C117" t="s">
+        <v>306</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>821</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C118" t="s">
+        <v>306</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>822</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C119" t="s">
+        <v>306</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>823</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C120" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>824</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C121" t="s">
+        <v>306</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>825</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C122" t="s">
+        <v>306</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>826</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C123" t="s">
+        <v>309</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>827</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C124" t="s">
+        <v>309</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>828</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C125" t="s">
+        <v>305</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>829</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C126" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>830</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C127" t="s">
+        <v>305</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>337</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C128" t="s">
+        <v>309</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>831</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C129" t="s">
+        <v>309</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>832</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C130" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>833</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C131" t="s">
+        <v>306</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>834</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C132" t="s">
+        <v>309</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>835</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C133" t="s">
+        <v>306</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>836</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C134" t="s">
+        <v>306</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>837</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C135" t="s">
+        <v>306</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>838</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C136" t="s">
+        <v>305</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>839</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C137" t="s">
+        <v>306</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>840</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C138" t="s">
+        <v>306</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>841</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C139" t="s">
+        <v>309</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>842</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C140" t="s">
+        <v>306</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>843</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C141" t="s">
+        <v>309</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>844</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C142" t="s">
+        <v>306</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>845</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C143" t="s">
+        <v>306</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>846</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C144" t="s">
+        <v>306</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>847</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C145" t="s">
+        <v>306</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>848</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C146" t="s">
+        <v>305</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>849</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C147" t="s">
+        <v>304</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>850</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C148" t="s">
+        <v>306</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>851</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C149" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>852</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C150" t="s">
+        <v>306</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>853</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C151" t="s">
+        <v>306</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>854</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C152" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>855</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C153" t="s">
+        <v>306</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>856</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C154" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>857</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C155" t="s">
+        <v>306</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>858</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C156" t="s">
+        <v>305</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>859</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C157" t="s">
+        <v>306</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>860</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C158" t="s">
+        <v>306</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>861</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C159" t="s">
+        <v>305</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>862</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C160" t="s">
+        <v>306</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>863</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C161" t="s">
+        <v>306</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>864</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C162" t="s">
+        <v>306</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>865</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C163" t="s">
+        <v>306</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>866</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C164" t="s">
+        <v>311</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>867</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C165" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>868</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C166" t="s">
+        <v>309</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>869</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C167" t="s">
+        <v>306</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>870</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C168" t="s">
+        <v>306</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>871</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C169" t="s">
+        <v>306</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>872</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C170" t="s">
+        <v>306</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>873</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C171" t="s">
+        <v>305</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>874</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C172" t="s">
+        <v>306</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>875</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C173" t="s">
+        <v>309</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>876</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C174" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>877</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C175" t="s">
+        <v>306</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>878</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C176" t="s">
+        <v>305</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>879</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C177" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>880</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C178" t="s">
+        <v>311</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>881</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C179" t="s">
+        <v>306</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>882</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C180" t="s">
+        <v>309</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>883</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C181" t="s">
+        <v>306</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>884</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C182" t="s">
+        <v>306</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>885</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C183" t="s">
+        <v>306</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>886</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C184" t="s">
+        <v>309</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>887</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C185" t="s">
+        <v>309</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>888</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C186" t="s">
+        <v>306</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>889</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C187" t="s">
+        <v>309</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>890</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C188" t="s">
+        <v>311</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>891</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C189" t="s">
+        <v>306</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>892</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C190" t="s">
+        <v>309</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>893</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C191" t="s">
+        <v>305</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>894</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C192" t="s">
+        <v>309</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>895</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C193" t="s">
+        <v>306</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>896</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C194" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>897</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C195" t="s">
+        <v>306</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>898</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C196" t="s">
+        <v>306</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>899</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C197" t="s">
+        <v>306</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>900</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C198" t="s">
+        <v>309</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>901</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C199" t="s">
+        <v>309</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>902</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C200" t="s">
+        <v>306</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>903</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C201" t="s">
+        <v>306</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>904</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C202" t="s">
+        <v>306</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>905</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C203" t="s">
+        <v>311</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>906</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C204" t="s">
+        <v>305</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>907</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C205" t="s">
+        <v>306</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>908</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C206" t="s">
+        <v>309</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>909</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C207" t="s">
+        <v>306</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>910</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C208" t="s">
+        <v>309</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>911</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C209" t="s">
+        <v>305</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>912</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>913</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C211" t="s">
+        <v>306</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>914</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C212" t="s">
+        <v>306</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>915</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C213" t="s">
+        <v>305</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>916</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C214" t="s">
+        <v>305</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>917</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C215" t="s">
+        <v>306</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>918</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C216" t="s">
+        <v>306</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>919</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C217" t="s">
+        <v>306</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>920</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C218" t="s">
+        <v>305</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>921</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C219" t="s">
+        <v>305</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>922</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C220" t="s">
+        <v>306</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>923</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C221" t="s">
+        <v>309</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>924</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C222" t="s">
+        <v>306</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>925</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C223" t="s">
+        <v>306</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>926</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C224" t="s">
+        <v>306</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>927</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C225" t="s">
+        <v>305</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>928</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C226" t="s">
+        <v>311</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>929</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C227" t="s">
+        <v>309</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>930</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C228" t="s">
+        <v>311</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>931</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C229" t="s">
+        <v>309</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>932</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C230" t="s">
+        <v>306</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/BHF_Dashboards/BHF_DSC_TRE_External_Dashboard/Data/DD_Wales.xlsx
+++ b/BHF_Dashboards/BHF_DSC_TRE_External_Dashboard/Data/DD_Wales.xlsx
@@ -14,13 +14,15 @@
     <sheet name="DF_SHIELDED_PATIENTS" r:id="rId8" sheetId="6"/>
     <sheet name="DEATHS" r:id="rId9" sheetId="7"/>
     <sheet name="ICNARC_LINKAGE" r:id="rId10" sheetId="8"/>
-    <sheet name="CARE_HOMES_20200708" r:id="rId11" sheetId="9"/>
+    <sheet name="Outpatient Referral (OPRD)" r:id="rId11" sheetId="9"/>
+    <sheet name="CARE_HOMES_20200708" r:id="rId12" sheetId="10"/>
+    <sheet name="cog_2020-04-24_metadata" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="1300">
   <si>
     <t>Variable</t>
   </si>
@@ -3514,6 +3516,297 @@
     <t>ICNARC_LINKAGE</t>
   </si>
   <si>
+    <t>SOURCE_OF_REF_DESC</t>
+  </si>
+  <si>
+    <t>PAT_REG_ORG_COUNTRYNAME</t>
+  </si>
+  <si>
+    <t>CLIN_REF_DT</t>
+  </si>
+  <si>
+    <t>REF_DT_KEY</t>
+  </si>
+  <si>
+    <t>SOURCE_OF_REF_DERIVED_CD</t>
+  </si>
+  <si>
+    <t>SOURCE_OF_REF_DERIVED_DESC</t>
+  </si>
+  <si>
+    <t>PAT_REF_AGE_TEN_YEAR_BANDS</t>
+  </si>
+  <si>
+    <t>PAT_REG_GP_GEO_HEALTH_ORG_NAME</t>
+  </si>
+  <si>
+    <t>PAT_REG_GP_ORG_CD</t>
+  </si>
+  <si>
+    <t>PAT_REG_GP_GEO_HEALTH_ORG_PREVIOUS_CD</t>
+  </si>
+  <si>
+    <t>PAT_REF_AGE_YEARS</t>
+  </si>
+  <si>
+    <t>SOURCE_OF_REF_CD</t>
+  </si>
+  <si>
+    <t>REF_ORG_CURR_CD_WELSH_ONLY</t>
+  </si>
+  <si>
+    <t>PAT_REG_GP_UA_NAME</t>
+  </si>
+  <si>
+    <t>REF_STAFF_PSEUDO</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPE_REQST_DERIVED_CD</t>
+  </si>
+  <si>
+    <t>CON_SPEC_DERIVED_CD</t>
+  </si>
+  <si>
+    <t>CON_SPEC_CAT</t>
+  </si>
+  <si>
+    <t>PAT_CLIN_REF_AGE_TEN_YEAR_BANDS</t>
+  </si>
+  <si>
+    <t>COUNT_EFF_GP_REF_RATE_NUMERATOR</t>
+  </si>
+  <si>
+    <t>PAT_REF_AGE_FIVE_YEAR_BANDS</t>
+  </si>
+  <si>
+    <t>DUR_REF_CLIN_REF_DAYS</t>
+  </si>
+  <si>
+    <t>PAT_CLIN_REF_AGE_YEARS</t>
+  </si>
+  <si>
+    <t>PAT_STATS_CURR_CENSUS_HEALTH_ORG_PREV_CD</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPE_REQST_DESC</t>
+  </si>
+  <si>
+    <t>CON_SPEC_CD</t>
+  </si>
+  <si>
+    <t>COUNT_OUTPATIENT_REF</t>
+  </si>
+  <si>
+    <t>REF_ORG_CURR_NAME_WELSH_ONLY</t>
+  </si>
+  <si>
+    <t>PAT_CLIN_REF_AGE_FIVE_YEAR_BANDS</t>
+  </si>
+  <si>
+    <t>CON_SPEC_DESC</t>
+  </si>
+  <si>
+    <t>REF_DT_VALID</t>
+  </si>
+  <si>
+    <t>REASON_FOR_REF</t>
+  </si>
+  <si>
+    <t>PAT_REG_GP_GEO_HEALTH_ORG_PREVIOUS_NAME</t>
+  </si>
+  <si>
+    <t>REF_DT</t>
+  </si>
+  <si>
+    <t>CLIN_REF_DT_VALID</t>
+  </si>
+  <si>
+    <t>PAT_REG_GP_GEO_HEALTH_ORG_CD</t>
+  </si>
+  <si>
+    <t>REF_PRIORITY_TYPE_DESC</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPE_REQST_CD</t>
+  </si>
+  <si>
+    <t>CLIN_REF_DT_KEY</t>
+  </si>
+  <si>
+    <t>REF_PRIORITY_TYPE_DERIVED_CD</t>
+  </si>
+  <si>
+    <t>REF_PRIORITY_TYPE_CD</t>
+  </si>
+  <si>
+    <t>Lower Layer Super Output Area (LSOA) code (9 characters) in which the patient is resident, based on the previous census.</t>
+  </si>
+  <si>
+    <t>Source of Referral Description. This is a classification which is used to identify the source of referral of each Outpatient Episode or Outpatient Referral.</t>
+  </si>
+  <si>
+    <t>Previous Organisation Code (3 character code). Code for the Local Health Board (LHB) where the patient is resident, identified via the NHS Postcode Directory.This ensures that the Local Health Board can receive information about the care given to its residents. Based on the previous census. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>The Clinical Referral Date (CRD) is the clinically significant date marking the start of a period of waiting either for an initial outpatient consultation or for an episode of treatment such as elective surgery. The CRD is used to order pick lists used for booking patients, and it does not change under any circumstances. It is not used to calculate performance waiting times statistics. Note: For outpatient data, the Clinical Referral Date (CRD) is the date that the referral of an outpatient appointment is received in the Local Health Board/Trust. All referrals should be date stamped on opening – this date stamp is the CRD. In addition, this CRD must be entered into PAS on the same day. If the referral request takes the form of a phone call followed by a letter, record the date when the letter arrives. If there is no following letter, the date of the verbal request should be recorded. Note: For inpatient and day cases, the Clinical Referral Date (CRD) is the date that a decision was made by the clinician within the Local Health Board/Trust (or GP outside the Local Health Board/Trust in cases of direct access referrals) to list the patient for treatment. The CRD is used to order the waiting list selection of patients.</t>
+  </si>
+  <si>
+    <t>Referring Organisation Name. The name of the organisation of the General Medical Practitioner (GMP), General Dental Practitioner (GDP) and Consultant or Independent Nurse making the referral. This information is essential for managing contracts which are based on patterns of referral.</t>
+  </si>
+  <si>
+    <t>Encrypted Local Patient Identifier. This is the case record number. It is a unique identifier for a patient within a health care provider. Where care for NHS patients is sub-commissioned in the independent sector or overseas, the NHS commissioner local patient identifier should be used. If no NHS local patient identifier has been assigned the independent sector or overseas provider identifier should be used.</t>
+  </si>
+  <si>
+    <t>Derived Source of Referral Code. This is a classification which is used to identify the source of referral of each Outpatient Episode or Outpatient Referral.</t>
+  </si>
+  <si>
+    <t>Derived Source of Referral Description. This is a classification which is used to identify the source of referral of each Outpatient Episode or Outpatient Referral.</t>
+  </si>
+  <si>
+    <t>Current Country Name of the refering organisation.</t>
+  </si>
+  <si>
+    <t>The ten year age band of the patient at date of patient referral.</t>
+  </si>
+  <si>
+    <t>Local Authority code (9 characters) in which the patient is resident. Based on the current census.</t>
+  </si>
+  <si>
+    <t>This is the code (6 characters) of the patient's registered General Practitioner (GP) Practice. This allows the practice to be notified about treatment received by the patient. The registered GP Practice may or may not be the same as the referring GP Practice.</t>
+  </si>
+  <si>
+    <t>Treatment Function Categroy. The category of the treatment function code.</t>
+  </si>
+  <si>
+    <t>The age in years of patient at date of patient referral.</t>
+  </si>
+  <si>
+    <t>Derived code indication the sex of the person, employee or patient.</t>
+  </si>
+  <si>
+    <t>Derived Organisation Name. Name of the Local Health Board (LHB) where the patient is a resident, identified via the NHS Postcode Directory. This ensures that the Local Health Board can receive information about the care given to its residents. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>Source of Referral Code. This is a classification which is used to identify the source of referral of each Outpatient Episode or Outpatient Referral.</t>
+  </si>
+  <si>
+    <t>Current Referring Site Code (5 character code), for referring organisations in Wales only. The code of the organisation of the General Medical Practitioner (GMP), General Dental Practitioner (GDP) and Consultant or Independent Nurse making the referral. This information is essential for managing contracts which are based on patterns of referral.</t>
+  </si>
+  <si>
+    <t>Pseudonymised Referrer Staff Code. This is the nationally recognized code of the person making the referral. This may be a General Medical Practitioner (GMP), General Dental Practitioner (GDP), Consultant or Independent Nurse.</t>
+  </si>
+  <si>
+    <t>Derived Service Type Requested Code. The terms of reference for the referral request.</t>
+  </si>
+  <si>
+    <t>Organisation Code (9 characters). Code for the Local Health Board (LHB) where the patient is a resident, identified via the NHS Postcode Directory. This ensures that the Local Health Board can receive information about the care given to its residents. Based on the current census. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>Country code (9 character) in which the patient is resident, based on the current census.</t>
+  </si>
+  <si>
+    <t>Current Referring Organisation Name. The name of the organisation of the General Medical Practitioner (GMP), General Dental Practitioner (GDP) and Consultant or Independent Nurse making the referral. This information is essential for managing contracts which are based on patterns of referral.</t>
+  </si>
+  <si>
+    <t>Derived Consultant Main Speciality Code. A unique code identifying each Main Specialty designated by Royal Colleges. Specialties are divisions of clinical work which may be defined by body systems (dermatology), age (paediatrics), clinical technology (nuclear medicine), clinical function (rheumatology), group of diseases (oncology) or combinations of these factors.Only Specialty titles recognised by the Royal Colleges and Faculties should be used. This list is maintained by the General and Specialist Medical Practice (Education, Training and Qualifications) Order 2003 and European Primary and Specialist Dental Qualifications Regulations 1998. Each consultant should be assigned a Main Specialty by the organisation to which the consultant is contracted. For physicians and surgeons with a generalist component to their work, the Main Specialty should be general medicine or general surgery. The hallmark of a general physician or general surgeon is the continued care of unselected emergency referrals. The Main Specialty is specific to a Health Care Provider. If, for example, a consultant physician working in two Health Care Providers has a generalist component to the work in one and not the other, general medicine is only assigned as the Main Specialty in the former case. Consultants in general medicine or general surgery may also have specialist interests and these should be recorded as well as the Main Specialty. The initial source of the information should be the designation on the consultant's contract. This should be checked periodically against the work a consultant is actually doing so that the statistics can relate to a consultant's current type of work. The Main Specialty only should be used for the purpose of producing Specialty costing statistics and for Workforce statistics where links with activity and finance are required. Other specialist interests of consultants may be recorded for workforce planning purposes. The Main Specialty code for general practitioners is General Medical Practice or General Dental Practice. Joint Consultant Clinic activity should be recorded against the Main Specialty code of the consultant managing the clinic.</t>
+  </si>
+  <si>
+    <t>Consultant Speciality Category. The category of the consultant's main speciality.</t>
+  </si>
+  <si>
+    <t>The ten year age band of the patient at date of clinical referral.</t>
+  </si>
+  <si>
+    <t>Referring Site Code (5 character code). The code of the organisation of the General Medical Practitioner (GMP), General Dental Practitioner (GDP) and Consultant or Independent Nurse making the referral. This information is essential for managing contracts which are based on patterns of referral.</t>
+  </si>
+  <si>
+    <t>Description of the sex of the person, employee or patient.</t>
+  </si>
+  <si>
+    <t>Previous Organisation Code (3 character code). Code for the Local Health Board (LHB) where the patient is resident, identified via the NHS Postcode Directory. This ensures that the Local Health Board can receive information about the care given to its residents. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>Current Organisation Name. Name of the Local Health Board (LHB) where the patient is a resident, identified via the NHS Postcode Directory. This ensures that the Local Health Board can receive information about the care given to its residents. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>The five year age band of the patient at date of patient referral.</t>
+  </si>
+  <si>
+    <t>The total number of days between the patient referral date and the clinical referral date.</t>
+  </si>
+  <si>
+    <t>The age in years of patient at date of clinical referral.</t>
+  </si>
+  <si>
+    <t>Previous Organisation Code (3 characters). Code for the Local Health Board (LHB) where the patient is a resident, identified via the NHS Postcode Directory. This ensures that the Local Health Board can receive information about the care given to its residents. Based on the current census. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>Local Authority code (9 characters) in which the patient is resident. Based on the previous census.</t>
+  </si>
+  <si>
+    <t>Organisation Code (9 characters). Code for the Local Health Board (LHB) where the patient is a resident, identified via the NHS Postcode Directory. This ensures that the Local Health Board can receive information about the care given to its residents. Based on the previous census. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>Service Type Requested Description. The terms of reference for the referral request.</t>
+  </si>
+  <si>
+    <t>Lower Layer Super Output Area (LSOA) code (9 characters) in which the patient is resident, for the latest version of LSOA codes (2011)</t>
+  </si>
+  <si>
+    <t>Consultant Main Speciality Code. A unique code identifying each Main Specialty designated by Royal Colleges. Specialties are divisions of clinical work which may be defined by body systems (dermatology), age (paediatrics), clinical technology (nuclear medicine), clinical function (rheumatology), group of diseases (oncology) or combinations of these factors.Only Specialty titles recognised by the Royal Colleges and Faculties should be used. This list is maintained by the General and Specialist Medical Practice (Education, Training and Qualifications) Order 2003 and European Primary and Specialist Dental Qualifications Regulations 1998. Each consultant should be assigned a Main Specialty by the organisation to which the consultant is contracted. For physicians and surgeons with a generalist component to their work, the Main Specialty should be general medicine or general surgery. The hallmark of a general physician or general surgeon is the continued care of unselected emergency referrals. The Main Specialty is specific to a Health Care Provider. If, for example, a consultant physician working in two Health Care Providers has a generalist component to the work in one and not the other, general medicine is only assigned as the Main Specialty in the former case. Consultants in general medicine or general surgery may also have specialist interests and these should be recorded as well as the Main Specialty. The initial source of the information should be the designation on the consultant's contract. This should be checked periodically against the work a consultant is actually doing so that the statistics can relate to a consultant's current type of work. The Main Specialty only should be used for the purpose of producing Specialty costing statistics and for Workforce statistics where links with activity and finance are required. Other specialist interests of consultants may be recorded for workforce planning purposes. The Main Specialty code for general practitioners is General Medical Practice or General Dental Practice. Joint Consultant Clinic activity should be recorded against the Main Specialty code of the consultant managing the clinic.</t>
+  </si>
+  <si>
+    <t>Current Referring Organisation Name, for referring organisations in Wales only. The name of the organisation of the General Medical Practitioner (GMP), General Dental Practitioner (GDP) and Consultant or Independent Nurse making the referral.</t>
+  </si>
+  <si>
+    <t>Previous Organisation Name. Name for the Local Health Board (LHB) where the patient is resident, identified via the NHS Postcode Directory. This ensures that the Local Health Board can receive information about the care given to its residents. Note: For English Residents treated in Wales, use the Organisation Code of the Primary Care Trust (PCT) of Residence for all activity / waiting times data up to 31st March 2013. From 1st April 2013 (inclusive) onwards, use the Organisation Code of the Clinical Commissioning Group (CCG).</t>
+  </si>
+  <si>
+    <t>The five year age band of the patient at date of clinical referral.</t>
+  </si>
+  <si>
+    <t>Consultant Main Speciality Description. Descriptions for each Main Specialty designated by Royal Colleges. Specialties are divisions of clinical work which may be defined by body systems (dermatology), age (paediatrics), clinical technology (nuclear medicine), clinical function (rheumatology), group of diseases (oncology) or combinations of these factors.Only Specialty titles recognised by the Royal Colleges and Faculties should be used. This list is maintained by the General and Specialist Medical Practice (Education, Training and Qualifications) Order 2003 and European Primary and Specialist Dental Qualifications Regulations 1998. Each consultant should be assigned a Main Specialty by the organisation to which the consultant is contracted. For physicians and surgeons with a generalist component to their work, the Main Specialty should be general medicine or general surgery. The hallmark of a general physician or general surgeon is the continued care of unselected emergency referrals. The Main Specialty is specific to a Health Care Provider. If, for example, a consultant physician working in two Health Care Providers has a generalist component to the work in one and not the other, general medicine is only assigned as the Main Specialty in the former case. Consultants in general medicine or general surgery may also have specialist interests and these should be recorded as well as the Main Specialty. The initial source of the information should be the designation on the consultant's contract. This should be checked periodically against the work a consultant is actually doing so that the statistics can relate to a consultant's current type of work. The Main Specialty only should be used for the purpose of producing Specialty costing statistics and for Workforce statistics where links with activity and finance are required. Other specialist interests of consultants may be recorded for workforce planning purposes. The Main Specialty code for general practitioners is General Medical Practice or General Dental Practice. Joint Consultant Clinic activity should be recorded against the Main Specialty code of the consultant managing the clinic.</t>
+  </si>
+  <si>
+    <t>Indiactes whether or not the patient referral date is valid.</t>
+  </si>
+  <si>
+    <t>The reason(s) for the patient requiring involvement with care professionals. These may include any problem, issue or event affecting the patient's health and/ or well being. The information held within this data item must be a valid clinical code or term.</t>
+  </si>
+  <si>
+    <t>Current Referring Site Code (5 character code). The code of the organisation of the General Medical Practitioner (GMP), General Dental Practitioner (GDP) and Consultant or Independent Nurse making the referral. This information is essential for managing contracts which are based on patterns of referral.</t>
+  </si>
+  <si>
+    <t>This is the date on which the patient was told about the referral. The starting point should be the date of referral given on the referral notification (not the date the letter was received in hospital). In cases where the referrer fails to specify a date of referral, the date the referral notification was received should be used. Dates to be used; - Date the patient is told about the referral - Date on referral notification - Date of receipt of referral notification (only to be used where no date on document present) - Date of verbal referral – For verbal referrals, the date of referral is equal to the date on which the verbal request is received. This date must be documented; any follow up written referral documentation will not affect the verbal date of referral. - Where a patient self refers, the date of referral is equal to the date of attendance.</t>
+  </si>
+  <si>
+    <t>Indiactes whether or not the clinical referral date is valid.</t>
+  </si>
+  <si>
+    <t>Previous Local Authority code (4 characters) in which the patient is resident. Based on the current census.</t>
+  </si>
+  <si>
+    <t>Referrer Priority Type Description. This is the Referrer's assessment of the priority of a request for services. The value may be obtained from the text in the referral notification and is unaffected by the priority as assessed by the Consultant or Independent Nurse responsible for the outpatient appointment on review of the referral notification. Note: If a patient self-refers, this field should be populated with the default value of 1. Note: The 'routine' value is to be utilized as a default if no urgency or clinical priority is included within the referral notification. Where an urgency or clinical priority is included 'urgency' can be defined as per the extant guidance.</t>
+  </si>
+  <si>
+    <t>Previous Local Authority code (4 characters) in which the patient is resident. Based on the previous census.</t>
+  </si>
+  <si>
+    <t>Service Type Requested Code. The terms of reference for the referral request.</t>
+  </si>
+  <si>
+    <t>Derived Referrer Priority Type Code. This is the Referrer's assessment of the priority of a request for services. The value may be obtained from the text in the referral notification and is unaffected by the priority as assessed by the Consultant or Independent Nurse responsible for the outpatient appointment on review of the referral notification. Note: If a patient self-refers, this field should be populated with the default value of 1. Note: The 'routine' value is to be utilized as a default if no urgency or clinical priority is included within the referral notification. Where an urgency or clinical priority is included 'urgency' can be defined as per the extant guidance.</t>
+  </si>
+  <si>
+    <t>Referrer Priority Type Code. This is the Referrer's assessment of the priority of a request for services. The value may be obtained from the text in the referral notification and is unaffected by the priority as assessed by the Consultant or Independent Nurse responsible for the outpatient appointment on review of the referral notification. Note: If a patient self-refers, this field should be populated with the default value of 1. Note: The 'routine' value is to be utilized as a default if no urgency or clinical priority is included within the referral notification. Where an urgency or clinical priority is included 'urgency' can be defined as per the extant guidance.</t>
+  </si>
+  <si>
+    <t>Country code (9 character) in which the patient is resident, based on the previous census.</t>
+  </si>
+  <si>
+    <t>Outpatient Referral (OPRD)</t>
+  </si>
+  <si>
     <t>REG_DATE</t>
   </si>
   <si>
@@ -3575,6 +3868,60 @@
   </si>
   <si>
     <t>CARE_HOMES_20200708</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
+  <si>
+    <t>lineage_support</t>
+  </si>
+  <si>
+    <t>sample_date</t>
+  </si>
+  <si>
+    <t>lineage</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>adm1</t>
+  </si>
+  <si>
+    <t>epi_week</t>
+  </si>
+  <si>
+    <t>Name of the viral sequence</t>
+  </si>
+  <si>
+    <t>Lineage Support</t>
+  </si>
+  <si>
+    <t>Sample Date</t>
+  </si>
+  <si>
+    <t>Viral lineage</t>
+  </si>
+  <si>
+    <t>Country collected</t>
+  </si>
+  <si>
+    <t>Nation of first adission</t>
+  </si>
+  <si>
+    <t>Episode Week</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>cog_2020-04-24_metadata</t>
   </si>
 </sst>
 </file>
@@ -6094,6 +6441,326 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
@@ -13055,170 +13722,1472 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1164</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>1174</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1165</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>1175</v>
+        <v>1205</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>1176</v>
+        <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D4" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1167</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>1177</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1168</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>1178</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1169</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>1179</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D7" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1170</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>1180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1171</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>1180</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>1164</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>1206</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1172</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>1181</v>
+        <v>355</v>
       </c>
       <c r="C11" t="s">
         <v>304</v>
       </c>
       <c r="D11" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>573</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>1182</v>
+        <v>1207</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C18" t="s">
+        <v>308</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>1173</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>366</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>374</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C55" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C56" t="s">
+        <v>304</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C57" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
         <v>1183</v>
       </c>
-      <c r="C13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
         <v>1184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C70" t="s">
+        <v>309</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C71" t="s">
+        <v>304</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C72" t="s">
+        <v>304</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>380</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C74" t="s">
+        <v>304</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>370</v>
+      </c>
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" t="s">
+        <v>308</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C77" t="s">
+        <v>304</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" t="s">
+        <v>304</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>304</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C85" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C87" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>309</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>384</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C92" t="s">
+        <v>308</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C94" t="s">
+        <v>309</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B95" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C96" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C97" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C98" t="s">
+        <v>309</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" t="s">
+        <v>306</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C101" t="s">
+        <v>309</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" t="s">
+        <v>305</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C103" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" t="s">
+        <v>309</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C105" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>371</v>
+      </c>
+      <c r="B106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
